--- a/model_evaluation/evaluation_results/crossval_multiclass_CBF_T1w_results_20250909_162341.xlsx
+++ b/model_evaluation/evaluation_results/crossval_multiclass_CBF_T1w_results_20250909_162341.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Per_Class_Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Per_Case_Details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Per_Hemisphere_Details" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Per_Class_Summary" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Per_Hemisphere_Summary" sheetId="4" state="visible" r:id="rId4"/>
@@ -440,17 +440,17 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="22" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,12 +471,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Base_Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Class</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Perfusion_Left</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>PerfTerr001-v1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -588,45 +588,45 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9287525939589578</v>
+        <v>0.8192024777390631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9199222259111171</v>
+        <v>0.7787520274358871</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8669823504089539</v>
+        <v>0.6937704918032787</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9473189087488241</v>
+        <v>0.7954887218045112</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9109000452284034</v>
+        <v>0.8443735035913806</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9902831212390254</v>
+        <v>0.9977908689248896</v>
       </c>
       <c r="L3" t="n">
-        <v>3.998118532455315</v>
+        <v>-5.789473684210527</v>
       </c>
       <c r="M3" t="n">
-        <v>3.712310601229374</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9082040958728219</v>
+        <v>1.041026276489175</v>
       </c>
     </row>
     <row r="4">
@@ -640,45 +640,45 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v1</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9393258426966292</v>
+        <v>0.931751570132589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9323104665283269</v>
+        <v>0.9231682724347936</v>
       </c>
       <c r="H4" t="n">
-        <v>0.885593220338983</v>
+        <v>0.8722236738960021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9353223228556207</v>
+        <v>0.944538766270515</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9433637829124126</v>
+        <v>0.9193059763150647</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9934301564545285</v>
+        <v>0.9928997237435176</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.8524240809802877</v>
+        <v>2.744765138653084</v>
       </c>
       <c r="M4" t="n">
         <v>2.625</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7523248558662314</v>
+        <v>0.63620231388904</v>
       </c>
     </row>
     <row r="5">
@@ -687,50 +687,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9427619473867422</v>
+        <v>0.9287525939589578</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9314507758239333</v>
+        <v>0.9199222259111171</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8917215428033867</v>
+        <v>0.8669823504089539</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9254124768134335</v>
+        <v>0.9473189087488241</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9607743766470708</v>
+        <v>0.9109000452284034</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9951233035523016</v>
+        <v>0.9902831212390254</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.680562335253343</v>
+        <v>3.998118532455315</v>
       </c>
       <c r="M5" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7065850644359565</v>
+        <v>0.9082040958728219</v>
       </c>
     </row>
     <row r="6">
@@ -739,7 +739,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -749,40 +749,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9303683519050168</v>
+        <v>0.7553648068669528</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9128985308445685</v>
+        <v>0.7017955000043913</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8698025657356019</v>
+        <v>0.6068965517241379</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9167625623321826</v>
+        <v>0.7367441860465116</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9443840758668379</v>
+        <v>0.7749510763209393</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9928889001162027</v>
+        <v>0.9974018638802599</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.92481779823552</v>
+        <v>-4.930232558139535</v>
       </c>
       <c r="M6" t="n">
-        <v>2.625</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8013762885376522</v>
+        <v>1.513535336608971</v>
       </c>
     </row>
     <row r="7">
@@ -791,163 +791,163 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8861729673744174</v>
+        <v>0.9229625625084471</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8743989160375482</v>
+        <v>0.9133044869891656</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7956109354658731</v>
+        <v>0.8569456644497427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8863565730860872</v>
+        <v>0.9293685356559608</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8859894377135756</v>
+        <v>0.9166442953020134</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9862283762992983</v>
+        <v>0.9924500316101736</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04143789495493629</v>
+        <v>1.388132825258574</v>
       </c>
       <c r="M7" t="n">
-        <v>5.25</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N7" t="n">
-        <v>1.079526766592999</v>
+        <v>0.786127062349584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9405554280468212</v>
+        <v>0.9393258426966292</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9292395762717455</v>
+        <v>0.9323104665283269</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8877816291161178</v>
+        <v>0.885593220338983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9512534818941504</v>
+        <v>0.9353223228556207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9300953245574217</v>
+        <v>0.9433637829124126</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9923935592215747</v>
+        <v>0.9934301564545285</v>
       </c>
       <c r="L8" t="n">
-        <v>2.274837511606314</v>
+        <v>-0.8524240809802877</v>
       </c>
       <c r="M8" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8521897293632437</v>
+        <v>0.7523248558662314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9361094586555622</v>
+        <v>0.7497507477567298</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9200063411480593</v>
+        <v>0.7686131873515342</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8798926414672332</v>
+        <v>0.5996810207336523</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9224997068824012</v>
+        <v>0.6477174849267873</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9501267962806424</v>
+        <v>0.8899408284023669</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9949056999420262</v>
+        <v>0.9989484277298477</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.907726579903857</v>
+        <v>-27.21791559000861</v>
       </c>
       <c r="M9" t="n">
-        <v>3.712310601229374</v>
+        <v>5.25</v>
       </c>
       <c r="N9" t="n">
-        <v>1.011180854356134</v>
+        <v>1.014824490498304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -957,49 +957,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9539973202322466</v>
+        <v>0.9341206130166523</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9478595006739008</v>
+        <v>0.9276190836634977</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9120409906063194</v>
+        <v>0.8763849122370223</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9465987148238423</v>
+        <v>0.9392928619079386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9615124915597569</v>
+        <v>0.9290050145157034</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9957554546131506</v>
+        <v>0.9934474148955605</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.551074673166408</v>
+        <v>1.107404936624416</v>
       </c>
       <c r="M10" t="n">
         <v>2.625</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5952611680811974</v>
+        <v>0.6640830219307773</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1009,205 +1009,205 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9500767691806635</v>
+        <v>0.9427619473867422</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9435318694202822</v>
+        <v>0.9314507758239333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.904901178764513</v>
+        <v>0.8917215428033867</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9286883754775332</v>
+        <v>0.9254124768134335</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9724735689113249</v>
+        <v>0.9607743766470708</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9963234358700354</v>
+        <v>0.9951233035523016</v>
       </c>
       <c r="L11" t="n">
-        <v>-4.502455885028197</v>
+        <v>-3.680562335253343</v>
       </c>
       <c r="M11" t="n">
         <v>2.625</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7259245265774882</v>
+        <v>0.7065850644359565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9445959104186953</v>
+        <v>0.7936831380539989</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9340399943011849</v>
+        <v>0.817143436211091</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8950087646461851</v>
+        <v>0.6579391891891891</v>
       </c>
       <c r="I12" t="n">
-        <v>0.949960830395613</v>
+        <v>0.72330547818013</v>
       </c>
       <c r="J12" t="n">
-        <v>0.939291247095275</v>
+        <v>0.8792325056433409</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9921020809190306</v>
+        <v>0.9987912745840064</v>
       </c>
       <c r="L12" t="n">
-        <v>1.135918527222875</v>
+        <v>-17.73444753946147</v>
       </c>
       <c r="M12" t="n">
-        <v>2.625</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6926276949798694</v>
+        <v>0.9932054711666751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9445780717578673</v>
+        <v>0.9409110755348566</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9360328739417531</v>
+        <v>0.9156664077003221</v>
       </c>
       <c r="H13" t="n">
-        <v>0.894976735352768</v>
+        <v>0.8884155558609317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9613423092615259</v>
+        <v>0.9446230274693161</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9283884948778566</v>
+        <v>0.9372281820817628</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9908892676324628</v>
+        <v>0.994767750978781</v>
       </c>
       <c r="L13" t="n">
-        <v>3.549571603427173</v>
+        <v>0.7890122735242548</v>
       </c>
       <c r="M13" t="n">
         <v>2.625</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7072033549388215</v>
+        <v>0.7078435967179175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9460290531226805</v>
+        <v>0.9303683519050168</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9399358912061586</v>
+        <v>0.9128985308445685</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8975855130784708</v>
+        <v>0.8698025657356019</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9438273563947953</v>
+        <v>0.9167625623321826</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9482410458072059</v>
+        <v>0.9443840758668379</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9939236652650755</v>
+        <v>0.9928889001162027</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.4654607003067809</v>
+        <v>-2.92481779823552</v>
       </c>
       <c r="M14" t="n">
         <v>2.625</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7246035964456081</v>
+        <v>0.8013762885376522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1217,205 +1217,205 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9521377126219543</v>
+        <v>0.7068852459016394</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9391135574341698</v>
+        <v>0.7099500761869652</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9086477527542166</v>
+        <v>0.5466531440162272</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9550158827748745</v>
+        <v>0.6517533252720678</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9492768384599715</v>
+        <v>0.7722063037249284</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9937626031738079</v>
+        <v>0.9982089148727654</v>
       </c>
       <c r="L15" t="n">
-        <v>0.604570140383236</v>
+        <v>-15.59854897218863</v>
       </c>
       <c r="M15" t="n">
-        <v>2.625</v>
+        <v>7.572400460960178</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6789160031717458</v>
+        <v>1.649258218419386</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PerfTerr005-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9445050096039038</v>
+        <v>0.9389302260283588</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9347890388656792</v>
+        <v>0.9290270363455833</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8948455636435176</v>
+        <v>0.8848901825879862</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9537638918012162</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9354241645244216</v>
+        <v>0.9119170984455959</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9921560790387449</v>
+        <v>0.9921875</v>
       </c>
       <c r="L16" t="n">
-        <v>1.960578737680856</v>
+        <v>6.105324074074074</v>
       </c>
       <c r="M16" t="n">
         <v>2.625</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7908788779669746</v>
+        <v>0.6966620447502418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PerfTerr006-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9014335688318815</v>
+        <v>0.8861729673744174</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8230918212316588</v>
+        <v>0.8743989160375482</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8205544455544456</v>
+        <v>0.7956109354658731</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9510783036618903</v>
+        <v>0.8863565730860872</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8567144719687092</v>
+        <v>0.8859894377135756</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9867095572674173</v>
+        <v>0.9862283762992983</v>
       </c>
       <c r="L17" t="n">
-        <v>11.01461861340281</v>
+        <v>0.04143789495493629</v>
       </c>
       <c r="M17" t="n">
-        <v>5.869678440936948</v>
+        <v>5.25</v>
       </c>
       <c r="N17" t="n">
-        <v>1.310827372540238</v>
+        <v>1.079526766592999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9265395023430797</v>
+        <v>0.5496117342536669</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9162260971295036</v>
+        <v>0.5135925932012904</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8631333005410723</v>
+        <v>0.3789411064842356</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9605857397016559</v>
+        <v>0.4767964071856288</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8948240693523712</v>
+        <v>0.6486761710794298</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9899748459771791</v>
+        <v>0.9960912716396266</v>
       </c>
       <c r="L18" t="n">
-        <v>7.349117284795402</v>
+        <v>-26.49700598802395</v>
       </c>
       <c r="M18" t="n">
-        <v>3.712310601229374</v>
+        <v>18.05756416965339</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004970745623015</v>
+        <v>4.372293740268368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1425,49 +1425,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9281241491968418</v>
+        <v>0.8941725621763548</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9149734413559972</v>
+        <v>0.8670671131550834</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8658877317754635</v>
+        <v>0.8086004484896452</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9728881278538812</v>
+        <v>0.9172527308095166</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8872982821447163</v>
+        <v>0.8722253841775754</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9895147229755908</v>
+        <v>0.9891698927843506</v>
       </c>
       <c r="L19" t="n">
-        <v>9.646118721461187</v>
+        <v>5.162352237019303</v>
       </c>
       <c r="M19" t="n">
-        <v>3.712310601229374</v>
+        <v>5.25</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9291242797358793</v>
+        <v>1.088729053411142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1477,205 +1477,205 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9468671410990422</v>
+        <v>0.9405554280468212</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9443876714724133</v>
+        <v>0.9292395762717455</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8990956203637842</v>
+        <v>0.8877816291161178</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9592367736339983</v>
+        <v>0.9512534818941504</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9348124669836239</v>
+        <v>0.9300953245574217</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9923235791778641</v>
+        <v>0.9923935592215747</v>
       </c>
       <c r="L20" t="n">
-        <v>2.612749349522983</v>
+        <v>2.274837511606314</v>
       </c>
       <c r="M20" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6828424492938798</v>
+        <v>0.8521897293632437</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9362610885992771</v>
+        <v>0.5511627906976744</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9294500557053895</v>
+        <v>0.5984051023900069</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8801606094924328</v>
+        <v>0.3804173354735153</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9412088517009799</v>
+        <v>0.7032640949554896</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9313650724479791</v>
+        <v>0.4531548757170172</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9921755654085472</v>
+        <v>0.9967959848985581</v>
       </c>
       <c r="L21" t="n">
-        <v>1.056919519982385</v>
+        <v>55.19287833827893</v>
       </c>
       <c r="M21" t="n">
-        <v>2.625</v>
+        <v>19.70003169391232</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7263182970561957</v>
+        <v>3.35055985325967</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.933383474803911</v>
+        <v>0.9014248328002327</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9274259259474044</v>
+        <v>0.8813801788351191</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8750881434471643</v>
+        <v>0.8205399682371625</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9459871501687902</v>
+        <v>0.955728203230978</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9211112289258827</v>
+        <v>0.8529605987233105</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9907482248778243</v>
+        <v>0.9836055515332982</v>
       </c>
       <c r="L22" t="n">
-        <v>2.700642491560492</v>
+        <v>12.04834134911826</v>
       </c>
       <c r="M22" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8202293491668378</v>
+        <v>1.377016801813376</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9412533347852126</v>
+        <v>0.9361094586555622</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9318945324081379</v>
+        <v>0.9200063411480593</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8890260207754809</v>
+        <v>0.8798926414672332</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9603377402510832</v>
+        <v>0.9224997068824012</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9229126628229767</v>
+        <v>0.9501267962806424</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9910420724822888</v>
+        <v>0.9949056999420262</v>
       </c>
       <c r="L23" t="n">
-        <v>4.05510498833463</v>
+        <v>-2.907726579903857</v>
       </c>
       <c r="M23" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7164554917540125</v>
+        <v>1.011180854356134</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1685,205 +1685,205 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9259976753196435</v>
+        <v>0.782319391634981</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9185631316489064</v>
+        <v>0.7583148476776239</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8621933621933622</v>
+        <v>0.6424668227946917</v>
       </c>
       <c r="I24" t="n">
-        <v>0.911716621253406</v>
+        <v>0.7742238946378175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9407332433648223</v>
+        <v>0.7905859750240154</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9934473111594654</v>
+        <v>0.9975377525780182</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.084468664850136</v>
+        <v>-2.06961429915334</v>
       </c>
       <c r="M24" t="n">
         <v>3.712310601229374</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8264386555205121</v>
+        <v>1.087261960297599</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9464619992512168</v>
+        <v>0.9258123850398529</v>
       </c>
       <c r="G25" t="n">
-        <v>0.938743269174786</v>
+        <v>0.9072843847150246</v>
       </c>
       <c r="H25" t="n">
-        <v>0.898365316275764</v>
+        <v>0.8618721461187214</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9409762841646283</v>
+        <v>0.9631330526852915</v>
       </c>
       <c r="J25" t="n">
-        <v>0.952012050785453</v>
+        <v>0.8912761185220163</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9944386947142662</v>
+        <v>0.9887354606719585</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.159204509199192</v>
+        <v>8.062252838372242</v>
       </c>
       <c r="M25" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6221806487197825</v>
+        <v>0.9804677027930895</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9451049835567923</v>
+        <v>0.9539973202322466</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9389152075408518</v>
+        <v>0.9478595006739008</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8959232613908873</v>
+        <v>0.9120409906063194</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9620931190770499</v>
+        <v>0.9465987148238423</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9287063736700806</v>
+        <v>0.9615124915597569</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9910253842687629</v>
+        <v>0.9957554546131506</v>
       </c>
       <c r="L26" t="n">
-        <v>3.594973217964565</v>
+        <v>-1.551074673166408</v>
       </c>
       <c r="M26" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8364092031922007</v>
+        <v>0.5952611680811974</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8207421249332622</v>
+        <v>0.7284768211920529</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8176916396997276</v>
+        <v>0.6904216737976246</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6959818902093945</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8698542933936908</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7768793430195831</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9786019798621124</v>
+        <v>0.9992280238529442</v>
       </c>
       <c r="L27" t="n">
-        <v>11.96774649879757</v>
+        <v>6.849315068493151</v>
       </c>
       <c r="M27" t="n">
-        <v>5.869678440936948</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N27" t="n">
-        <v>1.484214357897328</v>
+        <v>1.200193599296622</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1893,49 +1893,49 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.924110835401158</v>
+        <v>0.9569418189455997</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9115664574178594</v>
+        <v>0.9492546630606424</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8589275418028061</v>
+        <v>0.9174385823600484</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9327906491337925</v>
+        <v>0.9563392107472712</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9155910674042205</v>
+        <v>0.9575451870533838</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9897023169786798</v>
+        <v>0.9949545409131781</v>
       </c>
       <c r="L28" t="n">
-        <v>1.878522229179712</v>
+        <v>-0.1259445843828715</v>
       </c>
       <c r="M28" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N28" t="n">
-        <v>1.064447106454226</v>
+        <v>0.6147534385156279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1945,205 +1945,205 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9150244078828421</v>
+        <v>0.9500767691806635</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8940029548528999</v>
+        <v>0.9435318694202822</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8433594400933178</v>
+        <v>0.904901178764513</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9550858652575958</v>
+        <v>0.9286883754775332</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8781884435190005</v>
+        <v>0.9724735689113249</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9822282980177717</v>
+        <v>0.9963234358700354</v>
       </c>
       <c r="L29" t="n">
-        <v>8.756369126250235</v>
+        <v>-4.502455885028197</v>
       </c>
       <c r="M29" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N29" t="n">
-        <v>1.149102021043991</v>
+        <v>0.7259245265774882</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9231108367868794</v>
+        <v>0.593698175787728</v>
       </c>
       <c r="G30" t="n">
-        <v>0.909005370937359</v>
+        <v>0.6003608249160809</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8572013428314091</v>
+        <v>0.4221698113207547</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9122516556291391</v>
+        <v>0.4661458333333333</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9342316616098518</v>
+        <v>0.817351598173516</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9905662792483744</v>
+        <v>0.999551649928264</v>
       </c>
       <c r="L30" t="n">
-        <v>-2.352736144998257</v>
+        <v>-42.96875</v>
       </c>
       <c r="M30" t="n">
-        <v>5.25</v>
+        <v>10.60501054884671</v>
       </c>
       <c r="N30" t="n">
-        <v>1.124557862980658</v>
+        <v>1.926555656551127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PerfTerr011-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9260813855874166</v>
+        <v>0.9604298140883507</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9104349210851463</v>
+        <v>0.9578674812556017</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8623385172385419</v>
+        <v>0.9238720262510254</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9248963021798605</v>
+        <v>0.9690242643262778</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9272695098212705</v>
+        <v>0.9519864750633982</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9894977577329467</v>
+        <v>0.9927158942265767</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.2559350454505339</v>
+        <v>1.789709172259508</v>
       </c>
       <c r="M31" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N31" t="n">
-        <v>1.059071944554794</v>
+        <v>0.5291989015319812</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PerfTerr001-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.931751570132589</v>
+        <v>0.9445959104186953</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9231682724347936</v>
+        <v>0.9340399943011849</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8722236738960021</v>
+        <v>0.8950087646461851</v>
       </c>
       <c r="I32" t="n">
-        <v>0.944538766270515</v>
+        <v>0.949960830395613</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9193059763150647</v>
+        <v>0.939291247095275</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9928997237435176</v>
+        <v>0.9921020809190306</v>
       </c>
       <c r="L32" t="n">
-        <v>2.744765138653084</v>
+        <v>1.135918527222875</v>
       </c>
       <c r="M32" t="n">
         <v>2.625</v>
       </c>
       <c r="N32" t="n">
-        <v>0.63620231388904</v>
+        <v>0.6926276949798694</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2153,205 +2153,205 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9229625625084471</v>
+        <v>0.7622504537205081</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9133044869891656</v>
+        <v>0.6596253094396884</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8569456644497427</v>
+        <v>0.6158357771260997</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9293685356559608</v>
+        <v>0.8502024291497976</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9166442953020134</v>
+        <v>0.6907894736842105</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9924500316101736</v>
+        <v>0.9989479927926315</v>
       </c>
       <c r="L33" t="n">
-        <v>1.388132825258574</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="M33" t="n">
-        <v>3.712310601229374</v>
+        <v>7.102860250712379</v>
       </c>
       <c r="N33" t="n">
-        <v>0.786127062349584</v>
+        <v>1.118532508774358</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9341206130166523</v>
+        <v>0.9606292588542105</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9276190836634977</v>
+        <v>0.9588586007660479</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8763849122370223</v>
+        <v>0.9242411978955888</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9392928619079386</v>
+        <v>0.9737358233137204</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9290050145157034</v>
+        <v>0.9478708392130821</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9934474148955605</v>
+        <v>0.9919355874308169</v>
       </c>
       <c r="L34" t="n">
-        <v>1.107404936624416</v>
+        <v>2.728745629743327</v>
       </c>
       <c r="M34" t="n">
         <v>2.625</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6640830219307773</v>
+        <v>0.5988970504093525</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9409110755348566</v>
+        <v>0.9445780717578673</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9156664077003221</v>
+        <v>0.9360328739417531</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8884155558609317</v>
+        <v>0.894976735352768</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9446230274693161</v>
+        <v>0.9613423092615259</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9372281820817628</v>
+        <v>0.9283884948778566</v>
       </c>
       <c r="K35" t="n">
-        <v>0.994767750978781</v>
+        <v>0.9908892676324628</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7890122735242548</v>
+        <v>3.549571603427173</v>
       </c>
       <c r="M35" t="n">
         <v>2.625</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7078435967179175</v>
+        <v>0.7072033549388215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9389302260283588</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9290270363455833</v>
+        <v>0.7170443486158925</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8848901825879862</v>
+        <v>0.55</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9675925925925926</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9119170984455959</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9921875</v>
+        <v>0.9991273020206315</v>
       </c>
       <c r="L36" t="n">
-        <v>6.105324074074074</v>
+        <v>9.45945945945946</v>
       </c>
       <c r="M36" t="n">
-        <v>2.625</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N36" t="n">
-        <v>0.6966620447502418</v>
+        <v>1.252964759614472</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2361,49 +2361,49 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8941725621763548</v>
+        <v>0.9609407811843763</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8670671131550834</v>
+        <v>0.9562047099921075</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8086004484896452</v>
+        <v>0.9248181083265966</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9172527308095166</v>
+        <v>0.9746123700800818</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8722253841775754</v>
+        <v>0.9476474486414844</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9891698927843506</v>
+        <v>0.9918830751843004</v>
       </c>
       <c r="L37" t="n">
-        <v>5.162352237019303</v>
+        <v>2.845459192366672</v>
       </c>
       <c r="M37" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N37" t="n">
-        <v>1.088729053411142</v>
+        <v>0.5798700277930287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2413,205 +2413,205 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9014248328002327</v>
+        <v>0.9460290531226805</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8813801788351191</v>
+        <v>0.9399358912061586</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8205399682371625</v>
+        <v>0.8975855130784708</v>
       </c>
       <c r="I38" t="n">
-        <v>0.955728203230978</v>
+        <v>0.9438273563947953</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8529605987233105</v>
+        <v>0.9482410458072059</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9836055515332982</v>
+        <v>0.9939236652650755</v>
       </c>
       <c r="L38" t="n">
-        <v>12.04834134911826</v>
+        <v>-0.4654607003067809</v>
       </c>
       <c r="M38" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N38" t="n">
-        <v>1.377016801813376</v>
+        <v>0.7246035964456081</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9258123850398529</v>
+        <v>0.6955223880597015</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9072843847150246</v>
+        <v>0.6892736564784332</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8618721461187214</v>
+        <v>0.5331807780320366</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9631330526852915</v>
+        <v>0.5959079283887468</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8912761185220163</v>
+        <v>0.8351254480286738</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9887354606719585</v>
+        <v>0.9994843569594996</v>
       </c>
       <c r="L39" t="n">
-        <v>8.062252838372242</v>
+        <v>-28.64450127877238</v>
       </c>
       <c r="M39" t="n">
-        <v>3.712310601229374</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9804677027930895</v>
+        <v>1.157526741136921</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9569418189455997</v>
+        <v>0.9559953434225844</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9492546630606424</v>
+        <v>0.9512586748308379</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9174385823600484</v>
+        <v>0.915700267618198</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9563392107472712</v>
+        <v>0.9545137543587757</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9575451870533838</v>
+        <v>0.9574815390594636</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9949545409131781</v>
+        <v>0.9928678531846926</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.1259445843828715</v>
+        <v>-0.3099573808601317</v>
       </c>
       <c r="M40" t="n">
         <v>2.625</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6147534385156279</v>
+        <v>0.5843190522683122</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9604298140883507</v>
+        <v>0.9521377126219543</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9578674812556017</v>
+        <v>0.9391135574341698</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9238720262510254</v>
+        <v>0.9086477527542166</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9690242643262778</v>
+        <v>0.9550158827748745</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9519864750633982</v>
+        <v>0.9492768384599715</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9927158942265767</v>
+        <v>0.9937626031738079</v>
       </c>
       <c r="L41" t="n">
-        <v>1.789709172259508</v>
+        <v>0.604570140383236</v>
       </c>
       <c r="M41" t="n">
         <v>2.625</v>
       </c>
       <c r="N41" t="n">
-        <v>0.5291989015319812</v>
+        <v>0.6789160031717458</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2621,92 +2621,92 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9606292588542105</v>
+        <v>0.65</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9588586007660479</v>
+        <v>0.6673076923076923</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9242411978955888</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9737358233137204</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9478708392130821</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9919355874308169</v>
+        <v>0.9996648868434574</v>
       </c>
       <c r="L42" t="n">
-        <v>2.728745629743327</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="M42" t="n">
-        <v>2.625</v>
+        <v>8.327555106075556</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5988970504093525</v>
+        <v>1.980253677790023</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9609407811843763</v>
+        <v>0.9548816854498277</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9562047099921075</v>
+        <v>0.9510416815453431</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9248181083265966</v>
+        <v>0.91365893426221</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9746123700800818</v>
+        <v>0.9668261312838209</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9476474486414844</v>
+        <v>0.9432287681713849</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9918830751843004</v>
+        <v>0.9903447019479759</v>
       </c>
       <c r="L43" t="n">
-        <v>2.845459192366672</v>
+        <v>2.501764567484903</v>
       </c>
       <c r="M43" t="n">
         <v>2.625</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5798700277930287</v>
+        <v>0.6354703921737886</v>
       </c>
     </row>
     <row r="44">
@@ -2720,45 +2720,45 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v3</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9559953434225844</v>
+        <v>0.9445050096039038</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9512586748308379</v>
+        <v>0.9347890388656792</v>
       </c>
       <c r="H44" t="n">
-        <v>0.915700267618198</v>
+        <v>0.8948455636435176</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9545137543587757</v>
+        <v>0.9537638918012162</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9574815390594636</v>
+        <v>0.9354241645244216</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9928678531846926</v>
+        <v>0.9921560790387449</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.3099573808601317</v>
+        <v>1.960578737680856</v>
       </c>
       <c r="M44" t="n">
         <v>2.625</v>
       </c>
       <c r="N44" t="n">
-        <v>0.5843190522683122</v>
+        <v>0.7908788779669746</v>
       </c>
     </row>
     <row r="45">
@@ -2772,45 +2772,45 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v3</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9548816854498277</v>
+        <v>0.4183006535947713</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9510416815453431</v>
+        <v>0.4076696853870768</v>
       </c>
       <c r="H45" t="n">
-        <v>0.91365893426221</v>
+        <v>0.2644628099173554</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9668261312838209</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9432287681713849</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9903447019479759</v>
+        <v>0.9993522231032981</v>
       </c>
       <c r="L45" t="n">
-        <v>2.501764567484903</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="M45" t="n">
-        <v>2.625</v>
+        <v>11.10931114608606</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6354703921737886</v>
+        <v>3.094178141702963</v>
       </c>
     </row>
     <row r="46">
@@ -2829,12 +2829,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Perfusion_Right</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>PerfTerr005-v3</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2881,40 +2881,40 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Perfusion_Left</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>PerfTerr006-v1</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Perfusion_Right</t>
-        </is>
-      </c>
       <c r="F47" t="n">
-        <v>0.9231729389003308</v>
+        <v>0.9014335688318815</v>
       </c>
       <c r="G47" t="n">
-        <v>0.905339044461405</v>
+        <v>0.8230918212316588</v>
       </c>
       <c r="H47" t="n">
-        <v>0.857308450214443</v>
+        <v>0.8205544455544456</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9711134453781513</v>
+        <v>0.9510783036618903</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8797430712501487</v>
+        <v>0.8567144719687092</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9876683255269321</v>
+        <v>0.9867095572674173</v>
       </c>
       <c r="L47" t="n">
-        <v>10.38602941176471</v>
+        <v>11.01461861340281</v>
       </c>
       <c r="M47" t="n">
-        <v>5.25</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N47" t="n">
-        <v>1.165657406085521</v>
+        <v>1.310827372540238</v>
       </c>
     </row>
     <row r="48">
@@ -2928,45 +2928,45 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v1</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9332807985290255</v>
+        <v>0.28</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9104788487213694</v>
+        <v>0.421458148476782</v>
       </c>
       <c r="H48" t="n">
-        <v>0.874907658212263</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9818985767583253</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="J48" t="n">
-        <v>0.889250406707546</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9892548838677562</v>
+        <v>0.9995756655351081</v>
       </c>
       <c r="L48" t="n">
-        <v>10.41868177421584</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="M48" t="n">
-        <v>3.712310601229374</v>
+        <v>22.85735128204878</v>
       </c>
       <c r="N48" t="n">
-        <v>0.9410775657584773</v>
+        <v>7.567931655377076</v>
       </c>
     </row>
     <row r="49">
@@ -2980,106 +2980,106 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v1</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9464748574390877</v>
+        <v>0.9231729389003308</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9411150599006277</v>
+        <v>0.905339044461405</v>
       </c>
       <c r="H49" t="n">
-        <v>0.898388485668594</v>
+        <v>0.857308450214443</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9526480563527263</v>
+        <v>0.9711134453781513</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9403811485964461</v>
+        <v>0.8797430712501487</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9943491102594771</v>
+        <v>0.9876683255269321</v>
       </c>
       <c r="L49" t="n">
-        <v>1.304461257500652</v>
+        <v>10.38602941176471</v>
       </c>
       <c r="M49" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N49" t="n">
-        <v>0.746742859667471</v>
+        <v>1.165657406085521</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9269945355191257</v>
+        <v>0.9265395023430797</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9142728920149876</v>
+        <v>0.9162260971295036</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8639234059889997</v>
+        <v>0.8631333005410723</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9561492503663623</v>
+        <v>0.9605857397016559</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8995651712800933</v>
+        <v>0.8948240693523712</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9882693951368158</v>
+        <v>0.9899748459771791</v>
       </c>
       <c r="L50" t="n">
-        <v>6.290158944876564</v>
+        <v>7.349117284795402</v>
       </c>
       <c r="M50" t="n">
         <v>3.712310601229374</v>
       </c>
       <c r="N50" t="n">
-        <v>0.837890261929097</v>
+        <v>1.004970745623015</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3089,205 +3089,205 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.925070630143717</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9112716597464077</v>
+        <v>0.6197199810156622</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8605873614444064</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9488471714753686</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9024565608148591</v>
+        <v>0.3689320388349515</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9900322055275951</v>
+        <v>0.9992742214629462</v>
       </c>
       <c r="L51" t="n">
-        <v>5.14048129016001</v>
+        <v>151.219512195122</v>
       </c>
       <c r="M51" t="n">
-        <v>2.625</v>
+        <v>8.832503820613377</v>
       </c>
       <c r="N51" t="n">
-        <v>0.7301024756502117</v>
+        <v>1.910743521790073</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9247364550134837</v>
+        <v>0.9332807985290255</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9107478942806689</v>
+        <v>0.9104788487213694</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8600091199270405</v>
+        <v>0.874907658212263</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9397110114598903</v>
+        <v>0.9818985767583253</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9102316602316602</v>
+        <v>0.889250406707546</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9908792232628844</v>
+        <v>0.9892548838677562</v>
       </c>
       <c r="L52" t="n">
-        <v>3.238664673642252</v>
+        <v>10.41868177421584</v>
       </c>
       <c r="M52" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N52" t="n">
-        <v>0.7054516155247306</v>
+        <v>0.9410775657584773</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9623618440704969</v>
+        <v>0.9281241491968418</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9553344663023491</v>
+        <v>0.9149734413559972</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9274541790615104</v>
+        <v>0.8658877317754635</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9555116164112704</v>
+        <v>0.9728881278538812</v>
       </c>
       <c r="J53" t="n">
-        <v>0.969311001905526</v>
+        <v>0.8872982821447163</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9961502170220796</v>
+        <v>0.9895147229755908</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.423628274839348</v>
+        <v>9.646118721461187</v>
       </c>
       <c r="M53" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N53" t="n">
-        <v>0.4905088544278093</v>
+        <v>0.9291242797358793</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9293312269615587</v>
+        <v>0.7342465753424657</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9146964486149828</v>
+        <v>0.7727350672542752</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8679913436946685</v>
+        <v>0.5800865800865801</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9204130593512048</v>
+        <v>0.8072289156626506</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9384239072636392</v>
+        <v>0.6733668341708543</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9927636759026658</v>
+        <v>0.9992732070577185</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.919265672264525</v>
+        <v>19.87951807228916</v>
       </c>
       <c r="M54" t="n">
-        <v>3.712310601229374</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N54" t="n">
-        <v>0.8136443996667229</v>
+        <v>1.128211089245087</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3297,49 +3297,49 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9634561626429479</v>
+        <v>0.9464748574390877</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9603112642457916</v>
+        <v>0.9411150599006277</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9294890654113955</v>
+        <v>0.898388485668594</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9635051336789672</v>
+        <v>0.9526480563527263</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9634071965846717</v>
+        <v>0.9403811485964461</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9954866291388238</v>
+        <v>0.9943491102594771</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01016570092507878</v>
+        <v>1.304461257500652</v>
       </c>
       <c r="M55" t="n">
         <v>2.625</v>
       </c>
       <c r="N55" t="n">
-        <v>0.4953690135516305</v>
+        <v>0.746742859667471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3349,205 +3349,205 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.955485370359335</v>
+        <v>0.9468671410990422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9454113920626772</v>
+        <v>0.9443876714724133</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9147649475125513</v>
+        <v>0.8990956203637842</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9719932104752668</v>
+        <v>0.9592367736339983</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9395288878471816</v>
+        <v>0.9348124669836239</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9936571934310159</v>
+        <v>0.9923235791778641</v>
       </c>
       <c r="L56" t="n">
-        <v>3.455383123181377</v>
+        <v>2.612749349522983</v>
       </c>
       <c r="M56" t="n">
         <v>2.625</v>
       </c>
       <c r="N56" t="n">
-        <v>0.5773593744533834</v>
+        <v>0.6828424492938798</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9410419925400072</v>
+        <v>0.5319426336375489</v>
       </c>
       <c r="G57" t="n">
-        <v>0.920022489013084</v>
+        <v>0.5801694389336011</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8886490171571413</v>
+        <v>0.3623445825932504</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9137749737118822</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9699863574351978</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="K57" t="n">
-        <v>0.997013857183401</v>
+        <v>0.9978146853146853</v>
       </c>
       <c r="L57" t="n">
-        <v>-5.795069517466994</v>
+        <v>8.423913043478262</v>
       </c>
       <c r="M57" t="n">
-        <v>3.712310601229374</v>
+        <v>9.675829211684469</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8356116112741623</v>
+        <v>2.606771185335372</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9605377527959669</v>
+        <v>0.9269945355191257</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9548193083247231</v>
+        <v>0.9142728920149876</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9240718028765749</v>
+        <v>0.8639234059889997</v>
       </c>
       <c r="I58" t="n">
-        <v>0.955719557195572</v>
+        <v>0.9561492503663623</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9654047757716948</v>
+        <v>0.8995651712800933</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9963300711743772</v>
+        <v>0.9882693951368158</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.003228782287823</v>
+        <v>6.290158944876564</v>
       </c>
       <c r="M58" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5209485995467356</v>
+        <v>0.837890261929097</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9482654809874485</v>
+        <v>0.9362610885992771</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9349772399225117</v>
+        <v>0.9294500557053895</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9016205742469614</v>
+        <v>0.8801606094924328</v>
       </c>
       <c r="I59" t="n">
-        <v>0.964662646061063</v>
+        <v>0.9412088517009799</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9324164313689771</v>
+        <v>0.9313650724479791</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9906061680255228</v>
+        <v>0.9921755654085472</v>
       </c>
       <c r="L59" t="n">
-        <v>3.458349038823973</v>
+        <v>1.056919519982385</v>
       </c>
       <c r="M59" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8402902774212524</v>
+        <v>0.7263182970561957</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3557,205 +3557,205 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9266540642722118</v>
+        <v>0.7260138476755688</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9214443668293341</v>
+        <v>0.7433574922391849</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8633321592109898</v>
+        <v>0.5698757763975155</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8964066928773887</v>
+        <v>0.6827906976744186</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9590139880661254</v>
+        <v>0.7750791974656811</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9946734805435846</v>
+        <v>0.9975939000282407</v>
       </c>
       <c r="L60" t="n">
-        <v>-6.528298436499955</v>
+        <v>-11.90697674418605</v>
       </c>
       <c r="M60" t="n">
-        <v>5.869678440936948</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N60" t="n">
-        <v>1.152748476869809</v>
+        <v>1.320738028546732</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PerfTerr011-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9554092543306719</v>
+        <v>0.925070630143717</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9458498444112433</v>
+        <v>0.9112716597464077</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9146254246379403</v>
+        <v>0.8605873614444064</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9601163663663663</v>
+        <v>0.9488471714753686</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9507480717405445</v>
+        <v>0.9024565608148591</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9932863802188894</v>
+        <v>0.9900322055275951</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9853603603603603</v>
+        <v>5.14048129016001</v>
       </c>
       <c r="M61" t="n">
         <v>2.625</v>
       </c>
       <c r="N61" t="n">
-        <v>0.5973841733422302</v>
+        <v>0.7301024756502117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PerfTerr001-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8192024777390631</v>
+        <v>0.933383474803911</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7787520274358871</v>
+        <v>0.9274259259474044</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6937704918032787</v>
+        <v>0.8750881434471643</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7954887218045112</v>
+        <v>0.9459871501687902</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8443735035913806</v>
+        <v>0.9211112289258827</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9977908689248896</v>
+        <v>0.9907482248778243</v>
       </c>
       <c r="L62" t="n">
-        <v>-5.789473684210527</v>
+        <v>2.700642491560492</v>
       </c>
       <c r="M62" t="n">
-        <v>6.599999904632568</v>
+        <v>2.625</v>
       </c>
       <c r="N62" t="n">
-        <v>1.041026276489175</v>
+        <v>0.8202293491668378</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.7553648068669528</v>
+        <v>0.7367521367521368</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7017955000043913</v>
+        <v>0.629869411312686</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6068965517241379</v>
+        <v>0.5832205683355887</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7367441860465116</v>
+        <v>0.7077175697865353</v>
       </c>
       <c r="J63" t="n">
-        <v>0.7749510763209393</v>
+        <v>0.768270944741533</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9974018638802599</v>
+        <v>0.9970582245253559</v>
       </c>
       <c r="L63" t="n">
-        <v>-4.930232558139535</v>
+        <v>-7.881773399014778</v>
       </c>
       <c r="M63" t="n">
         <v>6.599999904632568</v>
       </c>
       <c r="N63" t="n">
-        <v>1.513535336608971</v>
+        <v>1.373427247864897</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3765,49 +3765,49 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.7497507477567298</v>
+        <v>0.9247364550134837</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7686131873515342</v>
+        <v>0.9107478942806689</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5996810207336523</v>
+        <v>0.8600091199270405</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6477174849267873</v>
+        <v>0.9397110114598903</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8899408284023669</v>
+        <v>0.9102316602316602</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9989484277298477</v>
+        <v>0.9908792232628844</v>
       </c>
       <c r="L64" t="n">
-        <v>-27.21791559000861</v>
+        <v>3.238664673642252</v>
       </c>
       <c r="M64" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N64" t="n">
-        <v>1.014824490498304</v>
+        <v>0.7054516155247306</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3817,205 +3817,205 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.7936831380539989</v>
+        <v>0.9412533347852126</v>
       </c>
       <c r="G65" t="n">
-        <v>0.817143436211091</v>
+        <v>0.9318945324081379</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6579391891891891</v>
+        <v>0.8890260207754809</v>
       </c>
       <c r="I65" t="n">
-        <v>0.72330547818013</v>
+        <v>0.9603377402510832</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8792325056433409</v>
+        <v>0.9229126628229767</v>
       </c>
       <c r="K65" t="n">
-        <v>0.9987912745840064</v>
+        <v>0.9910420724822888</v>
       </c>
       <c r="L65" t="n">
-        <v>-17.73444753946147</v>
+        <v>4.05510498833463</v>
       </c>
       <c r="M65" t="n">
-        <v>5.869678440936948</v>
+        <v>2.625</v>
       </c>
       <c r="N65" t="n">
-        <v>0.9932054711666751</v>
+        <v>0.7164554917540125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.7068852459016394</v>
+        <v>0.6977272727272728</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7099500761869652</v>
+        <v>0.6861914409426412</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5466531440162272</v>
+        <v>0.5357766143106457</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6517533252720678</v>
+        <v>0.6316872427983539</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7722063037249284</v>
+        <v>0.7791878172588832</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9982089148727654</v>
+        <v>0.9990237224229639</v>
       </c>
       <c r="L66" t="n">
-        <v>-15.59854897218863</v>
+        <v>-18.93004115226337</v>
       </c>
       <c r="M66" t="n">
-        <v>7.572400460960178</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N66" t="n">
-        <v>1.649258218419386</v>
+        <v>1.267695141882025</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.5496117342536669</v>
+        <v>0.9623618440704969</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5135925932012904</v>
+        <v>0.9553344663023491</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3789411064842356</v>
+        <v>0.9274541790615104</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4767964071856288</v>
+        <v>0.9555116164112704</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6486761710794298</v>
+        <v>0.969311001905526</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9960912716396266</v>
+        <v>0.9961502170220796</v>
       </c>
       <c r="L67" t="n">
-        <v>-26.49700598802395</v>
+        <v>-1.423628274839348</v>
       </c>
       <c r="M67" t="n">
-        <v>18.05756416965339</v>
+        <v>2.625</v>
       </c>
       <c r="N67" t="n">
-        <v>4.372293740268368</v>
+        <v>0.4905088544278093</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.5511627906976744</v>
+        <v>0.9259976753196435</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5984051023900069</v>
+        <v>0.9185631316489064</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3804173354735153</v>
+        <v>0.8621933621933622</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7032640949554896</v>
+        <v>0.911716621253406</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4531548757170172</v>
+        <v>0.9407332433648223</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9967959848985581</v>
+        <v>0.9934473111594654</v>
       </c>
       <c r="L68" t="n">
-        <v>55.19287833827893</v>
+        <v>-3.084468664850136</v>
       </c>
       <c r="M68" t="n">
-        <v>19.70003169391232</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N68" t="n">
-        <v>3.35055985325967</v>
+        <v>0.8264386555205121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4025,205 +4025,205 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.782319391634981</v>
+        <v>0.5435835351089588</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7583148476776239</v>
+        <v>0.4782629931855982</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6424668227946917</v>
+        <v>0.3732335827098919</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7742238946378175</v>
+        <v>0.3757322175732218</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7905859750240154</v>
+        <v>0.9824945295404814</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9975377525780182</v>
+        <v>0.9999095073808043</v>
       </c>
       <c r="L69" t="n">
-        <v>-2.06961429915334</v>
+        <v>-61.75732217573222</v>
       </c>
       <c r="M69" t="n">
-        <v>3.712310601229374</v>
+        <v>13.83518902259385</v>
       </c>
       <c r="N69" t="n">
-        <v>1.087261960297599</v>
+        <v>2.546729066773968</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.7284768211920529</v>
+        <v>0.9293312269615587</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6904216737976246</v>
+        <v>0.9146964486149828</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5729166666666666</v>
+        <v>0.8679913436946685</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7534246575342466</v>
+        <v>0.9204130593512048</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7051282051282052</v>
+        <v>0.9384239072636392</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9992280238529442</v>
+        <v>0.9927636759026658</v>
       </c>
       <c r="L70" t="n">
-        <v>6.849315068493151</v>
+        <v>-1.919265672264525</v>
       </c>
       <c r="M70" t="n">
-        <v>6.599999904632568</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N70" t="n">
-        <v>1.200193599296622</v>
+        <v>0.8136443996667229</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.593698175787728</v>
+        <v>0.9464619992512168</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6003608249160809</v>
+        <v>0.938743269174786</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4221698113207547</v>
+        <v>0.898365316275764</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4661458333333333</v>
+        <v>0.9409762841646283</v>
       </c>
       <c r="J71" t="n">
-        <v>0.817351598173516</v>
+        <v>0.952012050785453</v>
       </c>
       <c r="K71" t="n">
-        <v>0.999551649928264</v>
+        <v>0.9944386947142662</v>
       </c>
       <c r="L71" t="n">
-        <v>-42.96875</v>
+        <v>-1.159204509199192</v>
       </c>
       <c r="M71" t="n">
-        <v>10.60501054884671</v>
+        <v>2.625</v>
       </c>
       <c r="N71" t="n">
-        <v>1.926555656551127</v>
+        <v>0.6221806487197825</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.7622504537205081</v>
+        <v>0.7365384615384616</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6596253094396884</v>
+        <v>0.7278834459586575</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6158357771260997</v>
+        <v>0.5829528158295282</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8502024291497976</v>
+        <v>0.6060126582278481</v>
       </c>
       <c r="J72" t="n">
-        <v>0.6907894736842105</v>
+        <v>0.9387254901960784</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9989479927926315</v>
+        <v>0.99971900008992</v>
       </c>
       <c r="L72" t="n">
-        <v>23.07692307692308</v>
+        <v>-35.44303797468354</v>
       </c>
       <c r="M72" t="n">
-        <v>7.102860250712379</v>
+        <v>17.78545264808884</v>
       </c>
       <c r="N72" t="n">
-        <v>1.118532508774358</v>
+        <v>1.949430964711082</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4233,49 +4233,49 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.9634561626429479</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7170443486158925</v>
+        <v>0.9603112642457916</v>
       </c>
       <c r="H73" t="n">
-        <v>0.55</v>
+        <v>0.9294890654113955</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7432432432432432</v>
+        <v>0.9635051336789672</v>
       </c>
       <c r="J73" t="n">
-        <v>0.6790123456790124</v>
+        <v>0.9634071965846717</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9991273020206315</v>
+        <v>0.9954866291388238</v>
       </c>
       <c r="L73" t="n">
-        <v>9.45945945945946</v>
+        <v>0.01016570092507878</v>
       </c>
       <c r="M73" t="n">
-        <v>6.599999904632568</v>
+        <v>2.625</v>
       </c>
       <c r="N73" t="n">
-        <v>1.252964759614472</v>
+        <v>0.4953690135516305</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4285,205 +4285,205 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.6955223880597015</v>
+        <v>0.9451049835567923</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6892736564784332</v>
+        <v>0.9389152075408518</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5331807780320366</v>
+        <v>0.8959232613908873</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5959079283887468</v>
+        <v>0.9620931190770499</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8351254480286738</v>
+        <v>0.9287063736700806</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9994843569594996</v>
+        <v>0.9910253842687629</v>
       </c>
       <c r="L74" t="n">
-        <v>-28.64450127877238</v>
+        <v>3.594973217964565</v>
       </c>
       <c r="M74" t="n">
-        <v>5.869678440936948</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N74" t="n">
-        <v>1.157526741136921</v>
+        <v>0.8364092031922007</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.65</v>
+        <v>0.7654320987654321</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6673076923076923</v>
+        <v>0.7371643305838045</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.62</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8134110787172012</v>
       </c>
       <c r="J75" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.7227979274611399</v>
       </c>
       <c r="K75" t="n">
-        <v>0.9996648868434574</v>
+        <v>0.9988012144705737</v>
       </c>
       <c r="L75" t="n">
-        <v>5.128205128205128</v>
+        <v>12.53644314868805</v>
       </c>
       <c r="M75" t="n">
-        <v>8.327555106075556</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N75" t="n">
-        <v>1.980253677790023</v>
+        <v>0.9969684166508537</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PerfTerr005-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.4183006535947713</v>
+        <v>0.955485370359335</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4076696853870768</v>
+        <v>0.9454113920626772</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2644628099173554</v>
+        <v>0.9147649475125513</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.9719932104752668</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.9395288878471816</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9993522231032981</v>
+        <v>0.9936571934310159</v>
       </c>
       <c r="L76" t="n">
-        <v>42.85714285714285</v>
+        <v>3.455383123181377</v>
       </c>
       <c r="M76" t="n">
-        <v>11.10931114608606</v>
+        <v>2.625</v>
       </c>
       <c r="N76" t="n">
-        <v>3.094178141702963</v>
+        <v>0.5773593744533834</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PerfTerr006-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.28</v>
+        <v>0.8207421249332622</v>
       </c>
       <c r="G77" t="n">
-        <v>0.421458148476782</v>
+        <v>0.8176916396997276</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1627906976744186</v>
+        <v>0.6959818902093945</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.8698542933936908</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.7768793430195831</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9995756655351081</v>
+        <v>0.9786019798621124</v>
       </c>
       <c r="L77" t="n">
-        <v>8.333333333333332</v>
+        <v>11.96774649879757</v>
       </c>
       <c r="M77" t="n">
-        <v>22.85735128204878</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N77" t="n">
-        <v>7.567931655377076</v>
+        <v>1.484214357897328</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4493,205 +4493,205 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6197199810156622</v>
+        <v>0.3403798564636003</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3584905660377358</v>
+        <v>0.2</v>
       </c>
       <c r="I78" t="n">
-        <v>0.926829268292683</v>
+        <v>0.6625</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3689320388349515</v>
+        <v>0.2226890756302521</v>
       </c>
       <c r="K78" t="n">
-        <v>0.9992742214629462</v>
+        <v>0.9958631484794276</v>
       </c>
       <c r="L78" t="n">
-        <v>151.219512195122</v>
+        <v>197.5</v>
       </c>
       <c r="M78" t="n">
-        <v>8.832503820613377</v>
+        <v>34.20931638561443</v>
       </c>
       <c r="N78" t="n">
-        <v>1.910743521790073</v>
+        <v>7.746630811860848</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.7342465753424657</v>
+        <v>0.9410419925400072</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7727350672542752</v>
+        <v>0.920022489013084</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5800865800865801</v>
+        <v>0.8886490171571413</v>
       </c>
       <c r="I79" t="n">
-        <v>0.8072289156626506</v>
+        <v>0.9137749737118822</v>
       </c>
       <c r="J79" t="n">
-        <v>0.6733668341708543</v>
+        <v>0.9699863574351978</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9992732070577185</v>
+        <v>0.997013857183401</v>
       </c>
       <c r="L79" t="n">
-        <v>19.87951807228916</v>
+        <v>-5.795069517466994</v>
       </c>
       <c r="M79" t="n">
-        <v>6.599999904632568</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N79" t="n">
-        <v>1.128211089245087</v>
+        <v>0.8356116112741623</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.5319426336375489</v>
+        <v>0.924110835401158</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5801694389336011</v>
+        <v>0.9115664574178594</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3623445825932504</v>
+        <v>0.8589275418028061</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5543478260869565</v>
+        <v>0.9327906491337925</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5112781954887218</v>
+        <v>0.9155910674042205</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9978146853146853</v>
+        <v>0.9897023169786798</v>
       </c>
       <c r="L80" t="n">
-        <v>8.423913043478262</v>
+        <v>1.878522229179712</v>
       </c>
       <c r="M80" t="n">
-        <v>9.675829211684469</v>
+        <v>5.25</v>
       </c>
       <c r="N80" t="n">
-        <v>2.606771185335372</v>
+        <v>1.064447106454226</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.7260138476755688</v>
+        <v>0.5933014354066986</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7433574922391849</v>
+        <v>0.6263497176058753</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5698757763975155</v>
+        <v>0.4217687074829932</v>
       </c>
       <c r="I81" t="n">
-        <v>0.6827906976744186</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7750791974656811</v>
+        <v>0.4592592592592593</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9975939000282407</v>
+        <v>0.9991845944194983</v>
       </c>
       <c r="L81" t="n">
-        <v>-11.90697674418605</v>
+        <v>82.43243243243244</v>
       </c>
       <c r="M81" t="n">
-        <v>6.599999904632568</v>
+        <v>10.30191132268149</v>
       </c>
       <c r="N81" t="n">
-        <v>1.320738028546732</v>
+        <v>2.229249209806753</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4701,49 +4701,49 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.7367521367521368</v>
+        <v>0.9605377527959669</v>
       </c>
       <c r="G82" t="n">
-        <v>0.629869411312686</v>
+        <v>0.9548193083247231</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5832205683355887</v>
+        <v>0.9240718028765749</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7077175697865353</v>
+        <v>0.955719557195572</v>
       </c>
       <c r="J82" t="n">
-        <v>0.768270944741533</v>
+        <v>0.9654047757716948</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9970582245253559</v>
+        <v>0.9963300711743772</v>
       </c>
       <c r="L82" t="n">
-        <v>-7.881773399014778</v>
+        <v>-1.003228782287823</v>
       </c>
       <c r="M82" t="n">
-        <v>6.599999904632568</v>
+        <v>2.625</v>
       </c>
       <c r="N82" t="n">
-        <v>1.373427247864897</v>
+        <v>0.5209485995467356</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4753,144 +4753,144 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.6977272727272728</v>
+        <v>0.9150244078828421</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6861914409426412</v>
+        <v>0.8940029548528999</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5357766143106457</v>
+        <v>0.8433594400933178</v>
       </c>
       <c r="I83" t="n">
-        <v>0.6316872427983539</v>
+        <v>0.9550858652575958</v>
       </c>
       <c r="J83" t="n">
-        <v>0.7791878172588832</v>
+        <v>0.8781884435190005</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9990237224229639</v>
+        <v>0.9822282980177717</v>
       </c>
       <c r="L83" t="n">
-        <v>-18.93004115226337</v>
+        <v>8.756369126250235</v>
       </c>
       <c r="M83" t="n">
-        <v>5.869678440936948</v>
+        <v>5.25</v>
       </c>
       <c r="N83" t="n">
-        <v>1.267695141882025</v>
+        <v>1.149102021043991</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.5435835351089588</v>
+        <v>0.5917431192660551</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4782629931855982</v>
+        <v>0.5633184870253637</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3732335827098919</v>
+        <v>0.4201954397394137</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3757322175732218</v>
+        <v>0.6386138613861386</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9824945295404814</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="K84" t="n">
-        <v>0.9999095073808043</v>
+        <v>0.9988254770800241</v>
       </c>
       <c r="L84" t="n">
-        <v>-61.75732217573222</v>
+        <v>15.84158415841584</v>
       </c>
       <c r="M84" t="n">
-        <v>13.83518902259385</v>
+        <v>7.461566017084106</v>
       </c>
       <c r="N84" t="n">
-        <v>2.546729066773968</v>
+        <v>1.751714822076571</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.7365384615384616</v>
+        <v>0.9482654809874485</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7278834459586575</v>
+        <v>0.9349772399225117</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5829528158295282</v>
+        <v>0.9016205742469614</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6060126582278481</v>
+        <v>0.964662646061063</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9387254901960784</v>
+        <v>0.9324164313689771</v>
       </c>
       <c r="K85" t="n">
-        <v>0.99971900008992</v>
+        <v>0.9906061680255228</v>
       </c>
       <c r="L85" t="n">
-        <v>-35.44303797468354</v>
+        <v>3.458349038823973</v>
       </c>
       <c r="M85" t="n">
-        <v>17.78545264808884</v>
+        <v>5.25</v>
       </c>
       <c r="N85" t="n">
-        <v>1.949430964711082</v>
+        <v>0.8402902774212524</v>
       </c>
     </row>
     <row r="86">
@@ -4899,50 +4899,50 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.7654320987654321</v>
+        <v>0.9231108367868794</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7371643305838045</v>
+        <v>0.909005370937359</v>
       </c>
       <c r="H86" t="n">
-        <v>0.62</v>
+        <v>0.8572013428314091</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8134110787172012</v>
+        <v>0.9122516556291391</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7227979274611399</v>
+        <v>0.9342316616098518</v>
       </c>
       <c r="K86" t="n">
-        <v>0.9988012144705737</v>
+        <v>0.9905662792483744</v>
       </c>
       <c r="L86" t="n">
-        <v>12.53644314868805</v>
+        <v>-2.352736144998257</v>
       </c>
       <c r="M86" t="n">
-        <v>5.869678440936948</v>
+        <v>5.25</v>
       </c>
       <c r="N86" t="n">
-        <v>0.9969684166508537</v>
+        <v>1.124557862980658</v>
       </c>
     </row>
     <row r="87">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4961,40 +4961,40 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.64472190692395</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3403798564636003</v>
+        <v>0.6685797912345165</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2</v>
+        <v>0.47571189279732</v>
       </c>
       <c r="I87" t="n">
-        <v>0.6625</v>
+        <v>0.5230202578268877</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2226890756302521</v>
+        <v>0.8402366863905325</v>
       </c>
       <c r="K87" t="n">
-        <v>0.9958631484794276</v>
+        <v>0.9993936467655546</v>
       </c>
       <c r="L87" t="n">
-        <v>197.5</v>
+        <v>-37.75322283609576</v>
       </c>
       <c r="M87" t="n">
-        <v>34.20931638561443</v>
+        <v>8.433415603487706</v>
       </c>
       <c r="N87" t="n">
-        <v>7.746630811860848</v>
+        <v>1.562630297436436</v>
       </c>
     </row>
     <row r="88">
@@ -5003,50 +5003,50 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.5933014354066986</v>
+        <v>0.9266540642722118</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6263497176058753</v>
+        <v>0.9214443668293341</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4217687074829932</v>
+        <v>0.8633321592109898</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.8964066928773887</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4592592592592593</v>
+        <v>0.9590139880661254</v>
       </c>
       <c r="K88" t="n">
-        <v>0.9991845944194983</v>
+        <v>0.9946734805435846</v>
       </c>
       <c r="L88" t="n">
-        <v>82.43243243243244</v>
+        <v>-6.528298436499955</v>
       </c>
       <c r="M88" t="n">
-        <v>10.30191132268149</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N88" t="n">
-        <v>2.229249209806753</v>
+        <v>1.152748476869809</v>
       </c>
     </row>
     <row r="89">
@@ -5060,45 +5060,45 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v3</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.5917431192660551</v>
+        <v>0.9260813855874166</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5633184870253637</v>
+        <v>0.9104349210851463</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4201954397394137</v>
+        <v>0.8623385172385419</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6386138613861386</v>
+        <v>0.9248963021798605</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5512820512820513</v>
+        <v>0.9272695098212705</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9988254770800241</v>
+        <v>0.9894977577329467</v>
       </c>
       <c r="L89" t="n">
-        <v>15.84158415841584</v>
+        <v>-0.2559350454505339</v>
       </c>
       <c r="M89" t="n">
-        <v>7.461566017084106</v>
+        <v>5.25</v>
       </c>
       <c r="N89" t="n">
-        <v>1.751714822076571</v>
+        <v>1.059071944554794</v>
       </c>
     </row>
     <row r="90">
@@ -5112,45 +5112,45 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v3</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.64472190692395</v>
+        <v>0.5231866825208086</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6685797912345165</v>
+        <v>0.5976612694757586</v>
       </c>
       <c r="H90" t="n">
-        <v>0.47571189279732</v>
+        <v>0.3542673107890499</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5230202578268877</v>
+        <v>0.4206500956022944</v>
       </c>
       <c r="J90" t="n">
-        <v>0.8402366863905325</v>
+        <v>0.6918238993710691</v>
       </c>
       <c r="K90" t="n">
-        <v>0.9993936467655546</v>
+        <v>0.9988998282384903</v>
       </c>
       <c r="L90" t="n">
-        <v>-37.75322283609576</v>
+        <v>-39.19694072657744</v>
       </c>
       <c r="M90" t="n">
-        <v>8.433415603487706</v>
+        <v>11.6791143740553</v>
       </c>
       <c r="N90" t="n">
-        <v>1.562630297436436</v>
+        <v>2.602698263150995</v>
       </c>
     </row>
     <row r="91">
@@ -5169,40 +5169,40 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>Perfusion_Right</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>PerfTerr011-v3</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Perfusion_Overlap</t>
-        </is>
-      </c>
       <c r="F91" t="n">
-        <v>0.5231866825208086</v>
+        <v>0.9554092543306719</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5976612694757586</v>
+        <v>0.9458498444112433</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3542673107890499</v>
+        <v>0.9146254246379403</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4206500956022944</v>
+        <v>0.9601163663663663</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6918238993710691</v>
+        <v>0.9507480717405445</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9988998282384903</v>
+        <v>0.9932863802188894</v>
       </c>
       <c r="L91" t="n">
-        <v>-39.19694072657744</v>
+        <v>0.9853603603603603</v>
       </c>
       <c r="M91" t="n">
-        <v>11.6791143740553</v>
+        <v>2.625</v>
       </c>
       <c r="N91" t="n">
-        <v>2.602698263150995</v>
+        <v>0.5973841733422302</v>
       </c>
     </row>
   </sheetData>
@@ -5227,17 +5227,17 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="22" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Hemisphere</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Base_Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Hemisphere</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>PerfTerr001-v1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Left</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -5375,45 +5375,45 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9210593983029056</v>
+        <v>0.9507479453674688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9089797799514051</v>
+        <v>0.9446698176892508</v>
       </c>
       <c r="H3" t="n">
-        <v>0.853670162059104</v>
+        <v>0.9061196889439874</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9348575007829627</v>
+        <v>0.957370802572041</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9076626799108047</v>
+        <v>0.9442160892542572</v>
       </c>
       <c r="K3" t="n">
-        <v>0.988615488434286</v>
+        <v>0.9941503903844733</v>
       </c>
       <c r="L3" t="n">
-        <v>2.996137383860528</v>
+        <v>1.393188854489164</v>
       </c>
       <c r="M3" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9876252666015887</v>
+        <v>0.5364565040397329</v>
       </c>
     </row>
     <row r="4">
@@ -5427,45 +5427,45 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9392153073057595</v>
+        <v>0.9210593983029056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9309984907827282</v>
+        <v>0.9089797799514051</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8853967386353284</v>
+        <v>0.853670162059104</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9215816423288451</v>
+        <v>0.9348575007829627</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9575369458128079</v>
+        <v>0.9076626799108047</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9945480304601918</v>
+        <v>0.988615488434286</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.754978190783235</v>
+        <v>2.996137383860528</v>
       </c>
       <c r="M4" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7212683981224433</v>
+        <v>0.9876252666015887</v>
       </c>
     </row>
     <row r="5">
@@ -5474,50 +5474,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9393802102210946</v>
+        <v>0.946197099733649</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9288371775339402</v>
+        <v>0.9383096338743256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8856898761213157</v>
+        <v>0.8978881150303303</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9158127208480565</v>
+        <v>0.9489493054731093</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9641927083333334</v>
+        <v>0.9434608120868744</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9950817577925396</v>
+        <v>0.9940993138450547</v>
       </c>
       <c r="L5" t="n">
-        <v>-5.017667844522968</v>
+        <v>0.5817404725157307</v>
       </c>
       <c r="M5" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7427063692267144</v>
+        <v>0.6450005215257</v>
       </c>
     </row>
     <row r="6">
@@ -5526,50 +5526,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9315999275231021</v>
+        <v>0.9392153073057595</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9157935679344646</v>
+        <v>0.9309984907827282</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8719579411515306</v>
+        <v>0.8853967386353284</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9136383829409152</v>
+        <v>0.9215816423288451</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9502818593475649</v>
+        <v>0.9575369458128079</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9931329376475844</v>
+        <v>0.9945480304601918</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.856063971568192</v>
+        <v>-3.754978190783235</v>
       </c>
       <c r="M6" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N6" t="n">
-        <v>0.838173723109275</v>
+        <v>0.7212683981224433</v>
       </c>
     </row>
     <row r="7">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5588,49 +5588,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8758091363047901</v>
+        <v>0.9461912289946718</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8573864253408269</v>
+        <v>0.9404042729089211</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7790573332236571</v>
+        <v>0.8978775419491054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8618618618618619</v>
+        <v>0.933456561922366</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8902152457937776</v>
+        <v>0.9592781669238989</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9851420284692982</v>
+        <v>0.9957625024708441</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.185003185003185</v>
+        <v>-2.69177449168207</v>
       </c>
       <c r="M7" t="n">
-        <v>6.599999904632568</v>
+        <v>2.625</v>
       </c>
       <c r="N7" t="n">
-        <v>1.473978321844585</v>
+        <v>0.6195378125062116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5640,257 +5640,257 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9340551181102362</v>
+        <v>0.9393802102210946</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9211206391913479</v>
+        <v>0.9288371775339402</v>
       </c>
       <c r="H8" t="n">
-        <v>0.876269621421976</v>
+        <v>0.8856898761213157</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9539819055065342</v>
+        <v>0.9158127208480565</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9149437600428495</v>
+        <v>0.9641927083333334</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9901546244745619</v>
+        <v>0.9950817577925396</v>
       </c>
       <c r="L8" t="n">
-        <v>4.266726237015526</v>
+        <v>-5.017667844522968</v>
       </c>
       <c r="M8" t="n">
-        <v>5.25</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N8" t="n">
-        <v>1.069791036143264</v>
+        <v>0.7427063692267144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9310563603679813</v>
+        <v>0.9581661891117479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.918450728212538</v>
+        <v>0.948726818062091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8710060342269265</v>
+        <v>0.9196919691969196</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9179524603836531</v>
+        <v>0.9498800656482768</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9445397983265393</v>
+        <v>0.9665981500513875</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9935381461853815</v>
+        <v>0.9968168072576794</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.814845704753961</v>
+        <v>-1.729579598535538</v>
       </c>
       <c r="M9" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N9" t="n">
-        <v>1.029096351403017</v>
+        <v>0.5515141264937322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9545330792267901</v>
+        <v>0.9315999275231021</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9479904754879315</v>
+        <v>0.9157935679344646</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9130208333333333</v>
+        <v>0.8719579411515306</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9480800432666306</v>
+        <v>0.9136383829409152</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9610745614035088</v>
+        <v>0.9502818593475649</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9955821044116732</v>
+        <v>0.9931329376475844</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.352082206598161</v>
+        <v>-3.856063971568192</v>
       </c>
       <c r="M10" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5930137207451437</v>
+        <v>0.838173723109275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9459630702389573</v>
+        <v>0.9468010906093463</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9402795503132013</v>
+        <v>0.9390137372310153</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8974667239158437</v>
+        <v>0.8989765201685731</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9185269818948849</v>
+        <v>0.9647241245638971</v>
       </c>
       <c r="J11" t="n">
-        <v>0.975088635939541</v>
+        <v>0.9295318725099602</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9965866380302216</v>
+        <v>0.9930858406322913</v>
       </c>
       <c r="L11" t="n">
-        <v>-5.80066795570399</v>
+        <v>3.786018865486497</v>
       </c>
       <c r="M11" t="n">
         <v>2.625</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8165268975850104</v>
+        <v>0.622672367700964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9440993788819876</v>
+        <v>0.8758091363047901</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9326181643069905</v>
+        <v>0.8573864253408269</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8941176470588236</v>
+        <v>0.7790573332236571</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9519074481307964</v>
+        <v>0.8618618618618619</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9364183596689239</v>
+        <v>0.8902152457937776</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9914582833171175</v>
+        <v>0.9851420284692982</v>
       </c>
       <c r="L12" t="n">
-        <v>1.654077827708194</v>
+        <v>-3.185003185003185</v>
       </c>
       <c r="M12" t="n">
-        <v>2.625</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N12" t="n">
-        <v>0.71354662003332</v>
+        <v>1.473978321844585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5900,49 +5900,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9449096518289996</v>
+        <v>0.9331836047164515</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9363252625022931</v>
+        <v>0.9228240901990983</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8955722639933166</v>
+        <v>0.8747368421052631</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9622980251346499</v>
+        <v>0.9326599326599326</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9281385281385282</v>
+        <v>0.9337078651685393</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9906125116243999</v>
+        <v>0.9934911315134651</v>
       </c>
       <c r="L13" t="n">
-        <v>3.680430879712747</v>
+        <v>-0.1122334455667789</v>
       </c>
       <c r="M13" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N13" t="n">
-        <v>0.713007179120704</v>
+        <v>0.8233641473951281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5952,257 +5952,257 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.943170182265001</v>
+        <v>0.9340551181102362</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9372883133466929</v>
+        <v>0.9211206391913479</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8924522817556438</v>
+        <v>0.876269621421976</v>
       </c>
       <c r="I14" t="n">
-        <v>0.935696871190573</v>
+        <v>0.9539819055065342</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9507638315441783</v>
+        <v>0.9149437600428495</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9940192587391544</v>
+        <v>0.9901546244745619</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.584721657862658</v>
+        <v>4.266726237015526</v>
       </c>
       <c r="M14" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7658019774970382</v>
+        <v>1.069791036143264</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9519177179915894</v>
+        <v>0.9138742730545555</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9385787952528746</v>
+        <v>0.9052611945622259</v>
       </c>
       <c r="H15" t="n">
-        <v>0.908247123658513</v>
+        <v>0.8414074451810301</v>
       </c>
       <c r="I15" t="n">
-        <v>0.954965944901901</v>
+        <v>0.9767937485200094</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9488888888888889</v>
+        <v>0.8585700905401187</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9936562065117912</v>
+        <v>0.9832540601818764</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6404391582799633</v>
+        <v>13.76983187307601</v>
       </c>
       <c r="M15" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6799020566565979</v>
+        <v>1.291005572691257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PerfTerr005-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9436547177585497</v>
+        <v>0.9310563603679813</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9339983035249118</v>
+        <v>0.918450728212538</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8933203315455875</v>
+        <v>0.8710060342269265</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9541714404749505</v>
+        <v>0.9179524603836531</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9333672949566989</v>
+        <v>0.9445397983265393</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9918248978112226</v>
+        <v>0.9935381461853815</v>
       </c>
       <c r="L16" t="n">
-        <v>2.228934485991043</v>
+        <v>-2.814845704753961</v>
       </c>
       <c r="M16" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7995857297021326</v>
+        <v>1.029096351403017</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PerfTerr006-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9025137952176578</v>
+        <v>0.9450418160095579</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8241743465746291</v>
+        <v>0.9319340488635042</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8223463687150838</v>
+        <v>0.8958097395243488</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9521345407503234</v>
+        <v>0.9774208043136374</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8578088578088578</v>
+        <v>0.9147392767031118</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9867139382645839</v>
+        <v>0.9899501846390245</v>
       </c>
       <c r="L17" t="n">
-        <v>10.99611901681759</v>
+        <v>6.852392720736914</v>
       </c>
       <c r="M17" t="n">
-        <v>5.25</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N17" t="n">
-        <v>1.282399539171942</v>
+        <v>0.8491119630637749</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9246158875449493</v>
+        <v>0.9545330792267901</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9147846818895464</v>
+        <v>0.9479904754879315</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8598005836575876</v>
+        <v>0.9130208333333333</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9623026673924877</v>
+        <v>0.9480800432666306</v>
       </c>
       <c r="J18" t="n">
-        <v>0.889769724424311</v>
+        <v>0.9610745614035088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9893498030443029</v>
+        <v>0.9955821044116732</v>
       </c>
       <c r="L18" t="n">
-        <v>8.151878062057703</v>
+        <v>-1.352082206598161</v>
       </c>
       <c r="M18" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N18" t="n">
-        <v>1.028813934782892</v>
+        <v>0.5930137207451437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6212,49 +6212,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9288702928870293</v>
+        <v>0.9580961173513874</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9154215809496721</v>
+        <v>0.9503483951251356</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8671875</v>
+        <v>0.9195628630501133</v>
       </c>
       <c r="I19" t="n">
-        <v>0.974770002787845</v>
+        <v>0.9582435621216785</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8870988202460992</v>
+        <v>0.9579487179487179</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9892024361245239</v>
+        <v>0.9948655654765631</v>
       </c>
       <c r="L19" t="n">
-        <v>9.882910510175634</v>
+        <v>0.03077870113881194</v>
       </c>
       <c r="M19" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9289818413039589</v>
+        <v>0.6130714849207179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6264,257 +6264,257 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9364720394736842</v>
+        <v>0.9459630702389573</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9349463606238251</v>
+        <v>0.9402795503132013</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8805335395321864</v>
+        <v>0.8974667239158437</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9497497914929107</v>
+        <v>0.9185269818948849</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9235604217356043</v>
+        <v>0.975088635939541</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9905759424057594</v>
+        <v>0.9965866380302216</v>
       </c>
       <c r="L20" t="n">
-        <v>2.835696413678065</v>
+        <v>-5.80066795570399</v>
       </c>
       <c r="M20" t="n">
         <v>2.625</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8322002480062733</v>
+        <v>0.8165268975850104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9304870834154999</v>
+        <v>0.9657867387237581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9230898151959765</v>
+        <v>0.9622635231972687</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8700101410528257</v>
+        <v>0.9338371251708336</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9290214609175035</v>
+        <v>0.9675162418790605</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9319573375469089</v>
+        <v>0.9640634077516806</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9913270058659147</v>
+        <v>0.9944196716240946</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.3150226422524119</v>
+        <v>0.3581542562052307</v>
       </c>
       <c r="M21" t="n">
         <v>2.625</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7812747209519511</v>
+        <v>0.4802933316929268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9194425885272501</v>
+        <v>0.9440993788819876</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9141659990688817</v>
+        <v>0.9326181643069905</v>
       </c>
       <c r="H22" t="n">
-        <v>0.850896563907782</v>
+        <v>0.8941176470588236</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9261609460628786</v>
+        <v>0.9519074481307964</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9128209987681228</v>
+        <v>0.9364183596689239</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9883836917132792</v>
+        <v>0.9914582833171175</v>
       </c>
       <c r="L22" t="n">
-        <v>1.461397942505528</v>
+        <v>1.654077827708194</v>
       </c>
       <c r="M22" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9358342556016348</v>
+        <v>0.71354662003332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9470566841585701</v>
+        <v>0.9626310380267215</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9361686277281652</v>
+        <v>0.9614378369596891</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8994374814961018</v>
+        <v>0.927954347309186</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9606830399494044</v>
+        <v>0.977785201269417</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9338114754098361</v>
+        <v>0.947939438102178</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9919363898493379</v>
+        <v>0.9917166928606395</v>
       </c>
       <c r="L23" t="n">
-        <v>2.877622009065036</v>
+        <v>3.148488391514949</v>
       </c>
       <c r="M23" t="n">
         <v>2.625</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6698588219128703</v>
+        <v>0.5840967672554811</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9223591460013185</v>
+        <v>0.9449096518289996</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9055349024268953</v>
+        <v>0.9363252625022931</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8559058823529412</v>
+        <v>0.8955722639933166</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8769527483124397</v>
+        <v>0.9622980251346499</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9727243555460477</v>
+        <v>0.9281385281385282</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9967815221507005</v>
+        <v>0.9906125116243999</v>
       </c>
       <c r="L24" t="n">
-        <v>-9.845708775313405</v>
+        <v>3.680430879712747</v>
       </c>
       <c r="M24" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N24" t="n">
-        <v>1.016311608041158</v>
+        <v>0.713007179120704</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6524,49 +6524,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9538430359223793</v>
+        <v>0.9618949536560247</v>
       </c>
       <c r="G25" t="n">
-        <v>0.946358180158042</v>
+        <v>0.9569738423185526</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9117590081363812</v>
+        <v>0.9265873015873016</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9380169407075236</v>
+        <v>0.9761705685618729</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9702123273551845</v>
+        <v>0.9480308566788469</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9963677496386603</v>
+        <v>0.9917568263781555</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.318385650224215</v>
+        <v>2.968227424749164</v>
       </c>
       <c r="M25" t="n">
         <v>2.625</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5631271450404276</v>
+        <v>0.5822061213394047</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6576,257 +6576,257 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.946911291109593</v>
+        <v>0.943170182265001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.940221085778281</v>
+        <v>0.9372883133466929</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8991752386247799</v>
+        <v>0.8924522817556438</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9653765794448314</v>
+        <v>0.935696871190573</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9291391362635258</v>
+        <v>0.9507638315441783</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9906975574802952</v>
+        <v>0.9940192587391544</v>
       </c>
       <c r="L26" t="n">
-        <v>3.900109441846582</v>
+        <v>-1.584721657862658</v>
       </c>
       <c r="M26" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8332476915037506</v>
+        <v>0.7658019774970382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8033290653008963</v>
+        <v>0.9601361573373677</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7971365093584717</v>
+        <v>0.9557330296762255</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6713032313289108</v>
+        <v>0.9233287262675492</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8678932079125744</v>
+        <v>0.9546480144404332</v>
       </c>
       <c r="J27" t="n">
-        <v>0.747705875342629</v>
+        <v>0.9656877662811929</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9742992072452683</v>
+        <v>0.9940894317466974</v>
       </c>
       <c r="L27" t="n">
-        <v>16.07414580163232</v>
+        <v>-1.143200962695547</v>
       </c>
       <c r="M27" t="n">
-        <v>7.102860250712379</v>
+        <v>2.625</v>
       </c>
       <c r="N27" t="n">
-        <v>2.008572327285607</v>
+        <v>0.5438101102506241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9237457167698051</v>
+        <v>0.9519177179915894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9105823211321333</v>
+        <v>0.9385787952528746</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8582969017297092</v>
+        <v>0.908247123658513</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9352734051367025</v>
+        <v>0.954965944901901</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9124987369910074</v>
+        <v>0.9488888888888889</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9891674171920344</v>
+        <v>0.9936562065117912</v>
       </c>
       <c r="L28" t="n">
-        <v>2.495857497928749</v>
+        <v>0.6404391582799633</v>
       </c>
       <c r="M28" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N28" t="n">
-        <v>1.086343414877224</v>
+        <v>0.6799020566565979</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.955621415649898</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8934008406325417</v>
+        <v>0.9520745430979088</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.9150143731112258</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9676514147634266</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.9438868613138686</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9817258883248731</v>
+        <v>0.9903869950892915</v>
       </c>
       <c r="L29" t="n">
-        <v>8.888888888888889</v>
+        <v>2.517733260581495</v>
       </c>
       <c r="M29" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N29" t="n">
-        <v>1.163675241125131</v>
+        <v>0.6342203854729288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v3</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9217841531214191</v>
+        <v>0.9436547177585497</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9062767430896893</v>
+        <v>0.9339983035249118</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8549161615366448</v>
+        <v>0.8933203315455875</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9035693485314918</v>
+        <v>0.9541714404749505</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9407484407484408</v>
+        <v>0.9333672949566989</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9911834083087354</v>
+        <v>0.9918248978112226</v>
       </c>
       <c r="L30" t="n">
-        <v>-3.952075879856893</v>
+        <v>2.228934485991043</v>
       </c>
       <c r="M30" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N30" t="n">
-        <v>1.178424453231104</v>
+        <v>0.7995857297021326</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6836,49 +6836,49 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PerfTerr011-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v3</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9246826275879697</v>
+        <v>0.9545780089713144</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9082236505819515</v>
+        <v>0.946304319822018</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8599160129942159</v>
+        <v>0.9131030504074421</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9155559304875991</v>
+        <v>0.9368156259248298</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9339931153184166</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9901345406837651</v>
+        <v>0.9953866778823406</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.9740172093808</v>
+        <v>-3.72151524119562</v>
       </c>
       <c r="M31" t="n">
-        <v>5.25</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N31" t="n">
-        <v>1.098811074984857</v>
+        <v>0.7141482061861344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6888,257 +6888,257 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PerfTerr001-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v1</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9507479453674688</v>
+        <v>0.9025137952176578</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9446698176892508</v>
+        <v>0.8241743465746291</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9061196889439874</v>
+        <v>0.8223463687150838</v>
       </c>
       <c r="I32" t="n">
-        <v>0.957370802572041</v>
+        <v>0.9521345407503234</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9442160892542572</v>
+        <v>0.8578088578088578</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9941503903844733</v>
+        <v>0.9867139382645839</v>
       </c>
       <c r="L32" t="n">
-        <v>1.393188854489164</v>
+        <v>10.99611901681759</v>
       </c>
       <c r="M32" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N32" t="n">
-        <v>0.5364565040397329</v>
+        <v>1.282399539171942</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v1</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.946197099733649</v>
+        <v>0.9230292129256342</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9383096338743256</v>
+        <v>0.9050389033569128</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8978881150303303</v>
+        <v>0.8570605851186363</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9489493054731093</v>
+        <v>0.9709029227557411</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9434608120868744</v>
+        <v>0.8796548055325688</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9940993138450547</v>
+        <v>0.9875756688146846</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5817404725157307</v>
+        <v>10.3731732776618</v>
       </c>
       <c r="M33" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N33" t="n">
-        <v>0.6450005215257</v>
+        <v>1.179155584482658</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9461912289946718</v>
+        <v>0.9246158875449493</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9404042729089211</v>
+        <v>0.9147846818895464</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8978775419491054</v>
+        <v>0.8598005836575876</v>
       </c>
       <c r="I34" t="n">
-        <v>0.933456561922366</v>
+        <v>0.9623026673924877</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9592781669238989</v>
+        <v>0.889769724424311</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9957625024708441</v>
+        <v>0.9893498030443029</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.69177449168207</v>
+        <v>8.151878062057703</v>
       </c>
       <c r="M34" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6195378125062116</v>
+        <v>1.028813934782892</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9581661891117479</v>
+        <v>0.9359875097580016</v>
       </c>
       <c r="G35" t="n">
-        <v>0.948726818062091</v>
+        <v>0.9122618238113084</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9196919691969196</v>
+        <v>0.8796771826852531</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9498800656482768</v>
+        <v>0.9884583676834295</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9665981500513875</v>
+        <v>0.8888065233506302</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9968168072576794</v>
+        <v>0.9890673210077501</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.729579598535538</v>
+        <v>11.2118713932399</v>
       </c>
       <c r="M35" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N35" t="n">
-        <v>0.5515141264937322</v>
+        <v>0.924028287857721</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9468010906093463</v>
+        <v>0.9288702928870293</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9390137372310153</v>
+        <v>0.9154215809496721</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8989765201685731</v>
+        <v>0.8671875</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9647241245638971</v>
+        <v>0.974770002787845</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9295318725099602</v>
+        <v>0.8870988202460992</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9930858406322913</v>
+        <v>0.9892024361245239</v>
       </c>
       <c r="L36" t="n">
-        <v>3.786018865486497</v>
+        <v>9.882910510175634</v>
       </c>
       <c r="M36" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N36" t="n">
-        <v>0.622672367700964</v>
+        <v>0.9289818413039589</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7148,49 +7148,49 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9331836047164515</v>
+        <v>0.94828131923783</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9228240901990983</v>
+        <v>0.9423575884704983</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8747368421052631</v>
+        <v>0.9016492115083664</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9326599326599326</v>
+        <v>0.9563329928498467</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9337078651685393</v>
+        <v>0.9403640929064658</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9934911315134651</v>
+        <v>0.9941908815184424</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.1122334455667789</v>
+        <v>1.698161389172625</v>
       </c>
       <c r="M37" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8233641473951281</v>
+        <v>0.7362354256411445</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7200,257 +7200,257 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9138742730545555</v>
+        <v>0.9364720394736842</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9052611945622259</v>
+        <v>0.9349463606238251</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8414074451810301</v>
+        <v>0.8805335395321864</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9767937485200094</v>
+        <v>0.9497497914929107</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8585700905401187</v>
+        <v>0.9235604217356043</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9832540601818764</v>
+        <v>0.9905759424057594</v>
       </c>
       <c r="L38" t="n">
-        <v>13.76983187307601</v>
+        <v>2.835696413678065</v>
       </c>
       <c r="M38" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N38" t="n">
-        <v>1.291005572691257</v>
+        <v>0.8322002480062733</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9450418160095579</v>
+        <v>0.939843709026066</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9319340488635042</v>
+        <v>0.9261719011612259</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8958097395243488</v>
+        <v>0.886514297021866</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9774208043136374</v>
+        <v>0.9698019266154345</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9147392767031118</v>
+        <v>0.9116809116809117</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9899501846390245</v>
+        <v>0.9891987406826694</v>
       </c>
       <c r="L39" t="n">
-        <v>6.852392720736914</v>
+        <v>6.375148825630479</v>
       </c>
       <c r="M39" t="n">
         <v>3.712310601229374</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8491119630637749</v>
+        <v>0.7847546406892073</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9580961173513874</v>
+        <v>0.9304870834154999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9503483951251356</v>
+        <v>0.9230898151959765</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9195628630501133</v>
+        <v>0.8700101410528257</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9582435621216785</v>
+        <v>0.9290214609175035</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9579487179487179</v>
+        <v>0.9319573375469089</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9948655654765631</v>
+        <v>0.9913270058659147</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03077870113881194</v>
+        <v>-0.3150226422524119</v>
       </c>
       <c r="M40" t="n">
         <v>2.625</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6130714849207179</v>
+        <v>0.7812747209519511</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9657867387237581</v>
+        <v>0.9447115384615384</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9622635231972687</v>
+        <v>0.9361159923494159</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9338371251708336</v>
+        <v>0.8952164009111617</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9675162418790605</v>
+        <v>0.9593874833555259</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9640634077516806</v>
+        <v>0.9304778303917348</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9944196716240946</v>
+        <v>0.991983918201221</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3581542562052307</v>
+        <v>3.106968486462494</v>
       </c>
       <c r="M41" t="n">
         <v>2.625</v>
       </c>
       <c r="N41" t="n">
-        <v>0.4802933316929268</v>
+        <v>0.62878752980965</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9626310380267215</v>
+        <v>0.9194425885272501</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9614378369596891</v>
+        <v>0.9141659990688817</v>
       </c>
       <c r="H42" t="n">
-        <v>0.927954347309186</v>
+        <v>0.850896563907782</v>
       </c>
       <c r="I42" t="n">
-        <v>0.977785201269417</v>
+        <v>0.9261609460628786</v>
       </c>
       <c r="J42" t="n">
-        <v>0.947939438102178</v>
+        <v>0.9128209987681228</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9917166928606395</v>
+        <v>0.9883836917132792</v>
       </c>
       <c r="L42" t="n">
-        <v>3.148488391514949</v>
+        <v>1.461397942505528</v>
       </c>
       <c r="M42" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5840967672554811</v>
+        <v>0.9358342556016348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7460,49 +7460,49 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9618949536560247</v>
+        <v>0.9561535162950258</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9569738423185526</v>
+        <v>0.9495353388384802</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9265873015873016</v>
+        <v>0.9159905515045702</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9761705685618729</v>
+        <v>0.9646333549643089</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9480308566788469</v>
+        <v>0.9478214665249735</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9917568263781555</v>
+        <v>0.9938895387908505</v>
       </c>
       <c r="L43" t="n">
-        <v>2.968227424749164</v>
+        <v>1.773739995673805</v>
       </c>
       <c r="M43" t="n">
         <v>2.625</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5822061213394047</v>
+        <v>0.5348222759453489</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7512,257 +7512,257 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9601361573373677</v>
+        <v>0.9470566841585701</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9557330296762255</v>
+        <v>0.9361686277281652</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9233287262675492</v>
+        <v>0.8994374814961018</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9546480144404332</v>
+        <v>0.9606830399494044</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9656877662811929</v>
+        <v>0.9338114754098361</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9940894317466974</v>
+        <v>0.9919363898493379</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.143200962695547</v>
+        <v>2.877622009065036</v>
       </c>
       <c r="M44" t="n">
         <v>2.625</v>
       </c>
       <c r="N44" t="n">
-        <v>0.5438101102506241</v>
+        <v>0.6698588219128703</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.955621415649898</v>
+        <v>0.9607936659353239</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9520745430979088</v>
+        <v>0.9549517625484457</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9150143731112258</v>
+        <v>0.9245456214429961</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9676514147634266</v>
+        <v>0.9500990472596925</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9438868613138686</v>
+        <v>0.971731789676797</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9903869950892915</v>
+        <v>0.9962910922923075</v>
       </c>
       <c r="L45" t="n">
-        <v>2.517733260581495</v>
+        <v>-2.226205074992925</v>
       </c>
       <c r="M45" t="n">
         <v>2.625</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6342203854729288</v>
+        <v>0.5167139047456267</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PerfTerr005-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9545780089713144</v>
+        <v>0.9223591460013185</v>
       </c>
       <c r="G46" t="n">
-        <v>0.946304319822018</v>
+        <v>0.9055349024268953</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9131030504074421</v>
+        <v>0.8559058823529412</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9368156259248298</v>
+        <v>0.8769527483124397</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9730269730269731</v>
+        <v>0.9727243555460477</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9953866778823406</v>
+        <v>0.9967815221507005</v>
       </c>
       <c r="L46" t="n">
-        <v>-3.72151524119562</v>
+        <v>-9.845708775313405</v>
       </c>
       <c r="M46" t="n">
         <v>3.712310601229374</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7141482061861344</v>
+        <v>1.016311608041158</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PerfTerr006-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9230292129256342</v>
+        <v>0.9419629880825502</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9050389033569128</v>
+        <v>0.9399446377429889</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8570605851186363</v>
+        <v>0.8902930402930402</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9709029227557411</v>
+        <v>0.9016879985160453</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8796548055325688</v>
+        <v>0.9860040567951318</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9875756688146846</v>
+        <v>0.9982491309091832</v>
       </c>
       <c r="L47" t="n">
-        <v>10.3731732776618</v>
+        <v>-8.551289185679837</v>
       </c>
       <c r="M47" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N47" t="n">
-        <v>1.179155584482658</v>
+        <v>0.731269460293464</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9359875097580016</v>
+        <v>0.9538430359223793</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9122618238113084</v>
+        <v>0.946358180158042</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8796771826852531</v>
+        <v>0.9117590081363812</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9884583676834295</v>
+        <v>0.9380169407075236</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8888065233506302</v>
+        <v>0.9702123273551845</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9890673210077501</v>
+        <v>0.9963677496386603</v>
       </c>
       <c r="L48" t="n">
-        <v>11.2118713932399</v>
+        <v>-3.318385650224215</v>
       </c>
       <c r="M48" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N48" t="n">
-        <v>0.924028287857721</v>
+        <v>0.5631271450404276</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7772,49 +7772,49 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.94828131923783</v>
+        <v>0.960559980690321</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9423575884704983</v>
+        <v>0.9573816923050714</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9016492115083664</v>
+        <v>0.9241129481701653</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9563329928498467</v>
+        <v>0.9503295443690897</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9403640929064658</v>
+        <v>0.9710130782744486</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9941908815184424</v>
+        <v>0.9962467301057739</v>
       </c>
       <c r="L49" t="n">
-        <v>1.698161389172625</v>
+        <v>-2.130098385710192</v>
       </c>
       <c r="M49" t="n">
         <v>2.625</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7362354256411445</v>
+        <v>0.6161896775529662</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7824,257 +7824,257 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.939843709026066</v>
+        <v>0.946911291109593</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9261719011612259</v>
+        <v>0.940221085778281</v>
       </c>
       <c r="H50" t="n">
-        <v>0.886514297021866</v>
+        <v>0.8991752386247799</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9698019266154345</v>
+        <v>0.9653765794448314</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9116809116809117</v>
+        <v>0.9291391362635258</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9891987406826694</v>
+        <v>0.9906975574802952</v>
       </c>
       <c r="L50" t="n">
-        <v>6.375148825630479</v>
+        <v>3.900109441846582</v>
       </c>
       <c r="M50" t="n">
         <v>3.712310601229374</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7847546406892073</v>
+        <v>0.8332476915037506</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9447115384615384</v>
+        <v>0.9554540262707024</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9361159923494159</v>
+        <v>0.9450691656591305</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8952164009111617</v>
+        <v>0.91470749043193</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9593874833555259</v>
+        <v>0.9736934000698405</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9304778303917348</v>
+        <v>0.9378854131629106</v>
       </c>
       <c r="K51" t="n">
-        <v>0.991983918201221</v>
+        <v>0.9931612536878618</v>
       </c>
       <c r="L51" t="n">
-        <v>3.106968486462494</v>
+        <v>3.817949016412524</v>
       </c>
       <c r="M51" t="n">
         <v>2.625</v>
       </c>
       <c r="N51" t="n">
-        <v>0.62878752980965</v>
+        <v>0.5939302585958075</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9561535162950258</v>
+        <v>0.8033290653008963</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9495353388384802</v>
+        <v>0.7971365093584717</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9159905515045702</v>
+        <v>0.6713032313289108</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9646333549643089</v>
+        <v>0.8678932079125744</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9478214665249735</v>
+        <v>0.747705875342629</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9938895387908505</v>
+        <v>0.9742992072452683</v>
       </c>
       <c r="L52" t="n">
-        <v>1.773739995673805</v>
+        <v>16.07414580163232</v>
       </c>
       <c r="M52" t="n">
-        <v>2.625</v>
+        <v>7.102860250712379</v>
       </c>
       <c r="N52" t="n">
-        <v>0.5348222759453489</v>
+        <v>2.008572327285607</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9607936659353239</v>
+        <v>0.9629157492177541</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9549517625484457</v>
+        <v>0.9510747176595731</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9245456214429961</v>
+        <v>0.9284836294558051</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9500990472596925</v>
+        <v>0.9529762587452689</v>
       </c>
       <c r="J53" t="n">
-        <v>0.971731789676797</v>
+        <v>0.9730647616816958</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9962910922923075</v>
+        <v>0.997156316069287</v>
       </c>
       <c r="L53" t="n">
-        <v>-2.226205074992925</v>
+        <v>-2.064456933134534</v>
       </c>
       <c r="M53" t="n">
         <v>2.625</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5167139047456267</v>
+        <v>0.5546503338292659</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9419629880825502</v>
+        <v>0.9237457167698051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9399446377429889</v>
+        <v>0.9105823211321333</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8902930402930402</v>
+        <v>0.8582969017297092</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9016879985160453</v>
+        <v>0.9352734051367025</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9860040567951318</v>
+        <v>0.9124987369910074</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9982491309091832</v>
+        <v>0.9891674171920344</v>
       </c>
       <c r="L54" t="n">
-        <v>-8.551289185679837</v>
+        <v>2.495857497928749</v>
       </c>
       <c r="M54" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N54" t="n">
-        <v>0.731269460293464</v>
+        <v>1.086343414877224</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8084,40 +8084,40 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.960559980690321</v>
+        <v>0.9618687736173136</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9573816923050714</v>
+        <v>0.9570897764763215</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9241129481701653</v>
+        <v>0.9265387160820648</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9503295443690897</v>
+        <v>0.9604390578550195</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9710130782744486</v>
+        <v>0.963302752293578</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9962467301057739</v>
+        <v>0.9960422489920103</v>
       </c>
       <c r="L55" t="n">
-        <v>-2.130098385710192</v>
+        <v>-0.2972787560027441</v>
       </c>
       <c r="M55" t="n">
         <v>2.625</v>
       </c>
       <c r="N55" t="n">
-        <v>0.6161896775529662</v>
+        <v>0.4967772597007843</v>
       </c>
     </row>
     <row r="56">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8136,40 +8136,40 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.9554540262707024</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9450691656591305</v>
+        <v>0.8934008406325417</v>
       </c>
       <c r="H56" t="n">
-        <v>0.91470749043193</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9736934000698405</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9378854131629106</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9931612536878618</v>
+        <v>0.9817258883248731</v>
       </c>
       <c r="L56" t="n">
-        <v>3.817949016412524</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="M56" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N56" t="n">
-        <v>0.5939302585958075</v>
+        <v>1.163675241125131</v>
       </c>
     </row>
     <row r="57">
@@ -8178,50 +8178,50 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9629157492177541</v>
+        <v>0.9503790802197303</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9510747176595731</v>
+        <v>0.936952410989897</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9284836294558051</v>
+        <v>0.9054498269896194</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9529762587452689</v>
+        <v>0.9679119659700388</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9730647616816958</v>
+        <v>0.9334700793721573</v>
       </c>
       <c r="K57" t="n">
-        <v>0.997156316069287</v>
+        <v>0.9905313126697637</v>
       </c>
       <c r="L57" t="n">
-        <v>-2.064456933134534</v>
+        <v>3.689661549842797</v>
       </c>
       <c r="M57" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N57" t="n">
-        <v>0.5546503338292659</v>
+        <v>0.8276874272186846</v>
       </c>
     </row>
     <row r="58">
@@ -8230,50 +8230,50 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9618687736173136</v>
+        <v>0.9217841531214191</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9570897764763215</v>
+        <v>0.9062767430896893</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9265387160820648</v>
+        <v>0.8549161615366448</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9604390578550195</v>
+        <v>0.9035693485314918</v>
       </c>
       <c r="J58" t="n">
-        <v>0.963302752293578</v>
+        <v>0.9407484407484408</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9960422489920103</v>
+        <v>0.9911834083087354</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.2972787560027441</v>
+        <v>-3.952075879856893</v>
       </c>
       <c r="M58" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N58" t="n">
-        <v>0.4967772597007843</v>
+        <v>1.178424453231104</v>
       </c>
     </row>
     <row r="59">
@@ -8287,45 +8287,45 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9503790802197303</v>
+        <v>0.931899641577061</v>
       </c>
       <c r="G59" t="n">
-        <v>0.936952410989897</v>
+        <v>0.9290270024414641</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9054498269896194</v>
+        <v>0.87248322147651</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9679119659700388</v>
+        <v>0.8945993031358885</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9334700793721573</v>
+        <v>0.9724457911182653</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9905313126697637</v>
+        <v>0.9962749615975423</v>
       </c>
       <c r="L59" t="n">
-        <v>3.689661549842797</v>
+        <v>-8.005226480836237</v>
       </c>
       <c r="M59" t="n">
         <v>5.25</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8276874272186846</v>
+        <v>1.108552229788873</v>
       </c>
     </row>
     <row r="60">
@@ -8339,45 +8339,45 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v3</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.931899641577061</v>
+        <v>0.9246826275879697</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9290270024414641</v>
+        <v>0.9082236505819515</v>
       </c>
       <c r="H60" t="n">
-        <v>0.87248322147651</v>
+        <v>0.8599160129942159</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8945993031358885</v>
+        <v>0.9155559304875991</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9724457911182653</v>
+        <v>0.9339931153184166</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9962749615975423</v>
+        <v>0.9901345406837651</v>
       </c>
       <c r="L60" t="n">
-        <v>-8.005226480836237</v>
+        <v>-1.9740172093808</v>
       </c>
       <c r="M60" t="n">
         <v>5.25</v>
       </c>
       <c r="N60" t="n">
-        <v>1.108552229788873</v>
+        <v>1.098811074984857</v>
       </c>
     </row>
     <row r="61">
@@ -8396,12 +8396,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>PerfTerr011-v3</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Right</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -8454,7 +8454,7 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8987,7 +8987,7 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9033,19 +9033,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DSC_Volume</t>
+          <t>DSC_Slicewise</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9497301404050965</v>
+        <v>0.9151644337538385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01241561392911643</v>
+        <v>0.0334473007097771</v>
       </c>
     </row>
     <row r="4">
@@ -9056,32 +9056,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DSC_Slicewise</t>
+          <t>IoU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9151644337538385</v>
+        <v>0.8671230945881204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0334473007097771</v>
+        <v>0.04576439800390854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DSC_Slicewise</t>
+          <t>Sensitivity</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9416828813777899</v>
+        <v>0.9332068394188523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.015147971302865</v>
+        <v>0.02790546520661519</v>
       </c>
     </row>
     <row r="6">
@@ -9092,32 +9092,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IoU</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8671230945881204</v>
+        <v>0.924411716737105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04576439800390854</v>
+        <v>0.04357788483240951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IoU</t>
+          <t>Specificity</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9045353914086981</v>
+        <v>0.9908306187404704</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02224192614387778</v>
+        <v>0.004537751869533055</v>
       </c>
     </row>
     <row r="8">
@@ -9128,32 +9128,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sensitivity</t>
+          <t>RVE_Percent</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9332068394188523</v>
+        <v>1.173566658451625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02790546520661519</v>
+        <v>5.503714888760342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sensitivity</t>
+          <t>HD95_mm</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9565388537279788</v>
+        <v>3.809211498839332</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0203712356605614</v>
+        <v>1.309878877296246</v>
       </c>
     </row>
     <row r="10">
@@ -9164,14 +9164,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>ASSD_mm</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.924411716737105</v>
+        <v>0.9347122826358901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04357788483240951</v>
+        <v>0.2896596596390341</v>
       </c>
     </row>
     <row r="11">
@@ -9182,32 +9182,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>DSC_Volume</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9440618017095821</v>
+        <v>0.9497301404050965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0291053466529929</v>
+        <v>0.01241561392911643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Specificity</t>
+          <t>DSC_Slicewise</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9908306187404704</v>
+        <v>0.9416828813777899</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004537751869533055</v>
+        <v>0.015147971302865</v>
       </c>
     </row>
     <row r="13">
@@ -9218,32 +9218,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Specificity</t>
+          <t>IoU</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9932642258108526</v>
+        <v>0.9045353914086981</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003203234191144762</v>
+        <v>0.02224192614387778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RVE_Percent</t>
+          <t>Sensitivity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.173566658451625</v>
+        <v>0.9565388537279788</v>
       </c>
       <c r="D14" t="n">
-        <v>5.503714888760342</v>
+        <v>0.0203712356605614</v>
       </c>
     </row>
     <row r="15">
@@ -9254,32 +9254,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RVE_Percent</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.462861193457029</v>
+        <v>0.9440618017095821</v>
       </c>
       <c r="D15" t="n">
-        <v>4.862278939788997</v>
+        <v>0.0291053466529929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HD95_mm</t>
+          <t>Specificity</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.809211498839332</v>
+        <v>0.9932642258108526</v>
       </c>
       <c r="D16" t="n">
-        <v>1.309878877296246</v>
+        <v>0.003203234191144762</v>
       </c>
     </row>
     <row r="17">
@@ -9290,32 +9290,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HD95_mm</t>
+          <t>RVE_Percent</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.156218433538229</v>
+        <v>1.462861193457029</v>
       </c>
       <c r="D17" t="n">
-        <v>0.913015717166735</v>
+        <v>4.862278939788997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASSD_mm</t>
+          <t>HD95_mm</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9347122826358901</v>
+        <v>3.156218433538229</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2896596596390341</v>
+        <v>0.913015717166735</v>
       </c>
     </row>
     <row r="19">
